--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="210" yWindow="15" windowWidth="17445" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="158">
   <si>
     <t>官方补丁链接</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2690,22 +2690,6 @@
   </si>
   <si>
     <t>操作系统类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS/Oracle Linux/Red Hat Enterprise Linux 6.4/6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3210,14 +3194,176 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此缺陷会导致用户使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等命令查看到的虚拟机内存比规划配置的内存少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右，且缺少的这部分内存也无法被使用（例如：配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.7G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>783M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1081M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>openSUSE 13.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.7 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此缺陷会导致用户虚拟机的网络异常。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官方还没有补丁</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>CentOS 6.3 64</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3228,6 +3374,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3236,6 +3383,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3245,6 +3393,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3254,6 +3403,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color rgb="FF010000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3264,6 +3414,413 @@
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.7 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 7.0 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.3 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.4 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.7 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 5.11 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 5.11 32/64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机内核缺陷,导致虚拟机无法安装uvp-monitor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法通过虚拟化主机获取虚拟机的扩展信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无修复方法。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置网卡时，ifcfg-ethX配置文件中缺少” HWADDR=xx:xx:xx:xx”一项，系统在重启后，网口无法根据ifcfg-ethX配置文件中的MAC地址来进行名称关联，导致虚拟机网卡名变成_tmpx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虚拟机配置网卡后，重启虚拟机网卡名变成_tmpx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bugzilla.redhat.com/show_bug.cgi?id=224662 
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Red Hat Enterprise Linux 6.4 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS/Oracle Linux/Red Hat Enterprise Linux 6.4/6.5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle Linux 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机反复热迁移，概率发生迁移到目的端后恢复卡住的问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=72978b2fe2f2cdf9f319c6c6dcdbe92b38de2be2
+http://git.kernel.org/cgit/linux/kernel/git/tip/tip.git/commit/?id=c4288334818c81c946acb23d2319881f58c3d497</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题可降低热迁移卡死的概率。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 5.11  32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机休眠、内存快照和热迁移失败。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方还没有补丁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机执行休眠失败、热迁移失败或执行内存快照后无法外部重启虚拟机,无法再进行热迁移，休眠和内存快照。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无修复方法。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.4 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3306,7 +3863,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Red Hat Enterprise Linux 6.4 64</t>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3353,13 +3910,89 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>CentOS 6.3 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+    <t>CentOS 6.3 64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方还没有补丁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/etc/sysconfig/network-scripts/ifcfg-ethX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件中，添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”HWADDR=xx:xx:xx:xx”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项即可解决。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 5.11 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.3 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3370,7 +4003,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3379,7 +4011,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3389,7 +4020,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3399,7 +4029,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3410,16 +4039,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.6 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3430,7 +4057,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3439,7 +4065,24 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Debian GNU/Linux 7.1.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3450,16 +4093,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 7.0 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Novell SuSE Linux Enterprise Server 11 SP4 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3470,16 +4111,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3490,63 +4129,10 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>openSUSE 13.2 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS 6.7 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS 6.3 64</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Linux 6.7 64</t>
     </r>
     <r>
       <rPr>
@@ -3564,25 +4150,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CentOS 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS 6.5 64</t>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3600,25 +4168,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CentOS 6.7 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Debian GNU/Linux 7.1.0 32/64</t>
+      <t>Red Hat Enterprise Linux 6.6 64</t>
     </r>
     <r>
       <rPr>
@@ -3636,7 +4186,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Novell SuSE Linux Enterprise Server 11 SP4 64</t>
+      <t>CentOS/Red Hat Enterprise Linux 7.0/7.1 64</t>
     </r>
     <r>
       <rPr>
@@ -3654,294 +4204,233 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Oracle Linux 6.4 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
+      <t>Ubuntu 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是虚拟机内核缺陷。虚拟机内核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>balloon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动在计算内存时将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置空间、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>holes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等计算在内，使得总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超过配置值，因此虚拟机内核启动后便会做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>balloon out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导致虚拟机配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上内存时，虚拟机实际内存大小比配置的内存大小少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把以下内容追加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“/etc/modprobe.d/blacklist.conf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个文件的末尾，使得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">网卡的驱动在虚拟机启动过程中无法加载：
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.4/6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS/Red Hat Enterprise Linux 7.0/7.1 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ubuntu 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS 6.3 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS 6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.7 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS 5.11 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>官方还没有补丁</t>
-    </r>
-  </si>
-  <si>
-    <t>此缺陷会导致用户虚拟机的网络异常。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>禁用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8139</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网卡驱动的加载，将以下内容追加到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“/etc/modprobe.d/blacklist.conf”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">这个文件的末尾：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3954,7 +4443,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3964,6 +4453,753 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>虚拟机内核自身缺陷，在反复热迁移时有概率发生虚拟机卡住的情况。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机暂停失败时，虚拟磁盘申请的授权引用不会释放，而虚拟磁盘存在缺陷，导致其无法处理暂停失败的场景。若在该失败场景下，恢复磁盘会导致申请授权引用失败，虚拟机卡死。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用虚拟机快照功能后，虚拟机卡死。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机默认使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁盘，未使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半虚拟化磁盘。当执行虚拟机休眠时，需要暂停虚拟机，且暂停虚拟机后会，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Domain0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将会结束该虚拟机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程，由于虚拟机使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁盘无法处理它在暂停阶段产生的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，导致暂停过程超时失败。该缺陷同样存在于虚拟机的内存快照和热迁移功能中。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核缺陷。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对虚拟机下发休眠，该虚拟机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenstore watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将被注销，若休眠失败，其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenstore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机制无法处理该失败场景，即失败回退处理过程中未重新注册休眠时已注销的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenstore watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，导致休眠失败后，对该虚拟机下发的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作均无法响应，例如在用户界面下发重启虚拟机失败。该缺陷同样存在于热迁移和内存快照功能中。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录虚拟机，确认是否存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端驱动，在虚拟机内部执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lsmod | grep xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令，若命令回显中有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xen_vnif,xen_vbd,xen_platform_pci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以确认虚拟机自带了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端驱动，若没有这几个模块，则说明没有带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">前端驱动模块，建议不要再使用此虚拟机。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看虚拟机是否存在两个设备对象。执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fdisk -l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看是否存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/dev/xvda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/dev/sda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两个磁盘设备；执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ifconfig -a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看是否存在两个有相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地址的网卡设备。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若存在两个磁盘设备，修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/boot/grub/menu.lst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ide0=noprobe hdc=noprobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，虚拟机不再使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">磁盘设备。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若存在两个网卡设备，禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网卡驱动的加载，将以下内容追加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“/etc/modprobe.d/blacklist.conf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">这个文件的末尾：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>alias 8139cp off
+install 8139cp :
+alias 8139too off
+install 8139too :
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端驱动加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>initrd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件里面，执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mkinitrd -f /boot/initrd-$(uname -r).img $(uname -r) --with=xen_vbd --with=xen_vnif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重启虚拟机。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -3972,7 +5208,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>该问题是因虚拟机使用的</t>
+      <t>这是虚拟机自身缺陷。虚拟机启动后，将会呈现两套网卡（一个为</t>
     </r>
     <r>
       <rPr>
@@ -3981,7 +5217,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Linux</t>
+      <t>Qemu</t>
     </r>
     <r>
       <rPr>
@@ -3991,7 +5227,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>内核（</t>
+      <t>模拟的</t>
     </r>
     <r>
       <rPr>
@@ -4000,7 +5236,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2.6.18</t>
+      <t>8139</t>
     </r>
     <r>
       <rPr>
@@ -4010,7 +5246,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）未实现拔除</t>
+      <t>网卡，另一个为</t>
     </r>
     <r>
       <rPr>
@@ -4019,7 +5255,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Qemu</t>
+      <t>Xen</t>
     </r>
     <r>
       <rPr>
@@ -4029,7 +5265,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>模拟设备的功能导致，当用户给虚拟机配置了一张网卡，登录虚拟机内部，用户可以查看到此时虚拟机有两张网卡（分别为</t>
+      <t>半虚拟化前端网卡），其</t>
     </r>
     <r>
       <rPr>
@@ -4038,7 +5274,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>8139</t>
+      <t>MAC</t>
     </r>
     <r>
       <rPr>
@@ -4048,7 +5284,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>网卡和</t>
+      <t>地址相同。如果虚拟机所在的组网</t>
     </r>
     <r>
       <rPr>
@@ -4057,7 +5293,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>xen</t>
+      <t>IP</t>
     </r>
     <r>
       <rPr>
@@ -4067,7 +5303,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>前端网卡），这两张网卡的</t>
+      <t>分配使用</t>
     </r>
     <r>
       <rPr>
@@ -4076,7 +5312,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>MAC</t>
+      <t>DHCP</t>
     </r>
     <r>
       <rPr>
@@ -4086,7 +5322,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>地址是相同的。若虚拟机所在的组网环境使用</t>
+      <t>方式，这两张网卡被分配的</t>
     </r>
     <r>
       <rPr>
@@ -4095,7 +5331,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DHCP</t>
+      <t>IP</t>
     </r>
     <r>
       <rPr>
@@ -4105,307 +5341,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的方式分配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，则虚拟机内部的两张网卡将会获取相同的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户在虚拟机内部通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等命令查看到的实际内存比规划配置的少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>左右，且缺少的这部分内存也无法被使用（配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.7G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时会少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>783M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时会少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1081M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这是虚拟机内核的缺陷。虚拟机内核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>balloon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驱动在计算内存时将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置空间、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>holes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等计算在内，使得总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RAM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超过配置值，因此虚拟机内核启动后便会做</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>balloon out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导致虚拟机配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以上内存时，实际内存大小比配置的内存大小少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>左右。</t>
+      <t>可能相同。</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4801,7 +5737,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4917,6 +5853,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5571,71 +6510,71 @@
   <sheetData>
     <row r="1" spans="1:10" ht="35.1" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="37.35" customHeight="1">
       <c r="A2" s="22"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="259.35000000000002" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="111.6" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="36">
         <v>42479</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="130.35" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -5643,21 +6582,21 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -5665,13 +6604,13 @@
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -5679,13 +6618,13 @@
       <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -5693,13 +6632,13 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -5707,13 +6646,13 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -5721,11 +6660,11 @@
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -5733,13 +6672,13 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -5747,13 +6686,13 @@
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -5761,13 +6700,13 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -5787,11 +6726,11 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="20.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -5803,12 +6742,12 @@
       <c r="A21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="33"/>
@@ -5818,11 +6757,11 @@
       <c r="A22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="34"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -5833,11 +6772,11 @@
       <c r="A23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -5848,11 +6787,11 @@
       <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="52">
         <v>4008302118</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
@@ -5924,10 +6863,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="58"/>
+      <c r="B2" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="9" t="s">
@@ -5937,17 +6876,17 @@
     </row>
     <row r="4" spans="1:3" ht="114" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13"/>
@@ -5956,55 +6895,55 @@
       <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="56"/>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="56"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="56"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="56"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="16"/>
@@ -6024,10 +6963,10 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="55"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="18" t="s">
@@ -6086,11 +7025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6128,13 +7066,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -6148,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -6188,7 +7126,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>56</v>
@@ -6200,7 +7138,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" thickBot="1">
@@ -6208,7 +7146,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
@@ -6220,18 +7158,18 @@
         <v>61</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="135.75" thickBot="1">
+    <row r="7" spans="1:6" ht="122.25" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>63</v>
@@ -6243,18 +7181,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="135.75" thickBot="1">
+    <row r="8" spans="1:6" ht="189.75" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>66</v>
@@ -6277,10 +7215,10 @@
         <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="5" t="s">
         <v>108</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" thickBot="1">
@@ -6348,7 +7286,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>82</v>
@@ -6408,7 +7346,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>94</v>
@@ -6448,19 +7386,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
@@ -6468,13 +7406,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
@@ -6491,16 +7429,136 @@
         <v>125</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27.75" thickBot="1">
+      <c r="A21" s="37">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="54.75" thickBot="1">
+      <c r="A22" s="37">
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>128</v>
+      <c r="C22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="54.75" thickBot="1">
+      <c r="A23" s="37">
+        <v>22</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="243.75" thickBot="1">
+      <c r="A24" s="37">
+        <v>23</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="80.25" thickBot="1">
+      <c r="A25" s="37">
+        <v>24</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A26" s="37">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6512,8 +7570,9 @@
     <hyperlink ref="E13" r:id="rId4" display="https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=2fb3683e7b164ee2b324039f7c9d90fe5b1a259b"/>
     <hyperlink ref="E17" r:id="rId5" display="https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=2fb3683e7b164ee2b324039f7c9d90fe5b1a259b"/>
     <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
 </worksheet>
 </file>
--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="15" windowWidth="17445" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="210" yWindow="15" windowWidth="17445" windowHeight="10260"/>
   </bookViews>
   <sheets>
-    <sheet name="封面" sheetId="3" r:id="rId1"/>
-    <sheet name="前言" sheetId="2" r:id="rId2"/>
-    <sheet name="缺陷列表" sheetId="1" r:id="rId3"/>
+    <sheet name="前言" sheetId="2" r:id="rId1"/>
+    <sheet name="缺陷列表" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$A$1:$E$24</definedName>
     <definedName name="unitENG">[1]数据固化!$AB$4:$AB$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>官方补丁链接</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -67,161 +65,6 @@
   <si>
     <t>第一次正式发布。</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为技术有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>版权所有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> © </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>华为技术有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2016</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保留一切权利。</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>非经本公司书面许可，任何单位和个人不得擅自摘抄、复制本文档内容的部分或全部，并不得以任何形式传播。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>商标声明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     和其他华为商标均为华为技术有限公司的商标。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>本文档提及的其他所有商标或注册商标，由各自的所有人拥有。</t>
-  </si>
-  <si>
-    <t>注意</t>
-  </si>
-  <si>
-    <t>您购买的产品、服务或特性等应受华为公司商业合同和条款的约束，本文档中描述的全部或部分产品、服务或特性可能不在您的购买或使用范围之内。除非合同另有约定，华为公司对本文档内容不做任何明示或暗示的声明或保证。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于产品版本升级或其他原因，本文档内容会不定期进行更新。除非另有约定，本文档仅作为使用指导，本文档中的所有陈述、信息和建议不构成任何明示或暗示的担保。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为技术有限公司</t>
-  </si>
-  <si>
-    <t>地址：</t>
-  </si>
-  <si>
-    <r>
-      <t>深圳市龙岗区坂田华为总部办公楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮编：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>518129</t>
-    </r>
-  </si>
-  <si>
-    <t>网址：</t>
-  </si>
-  <si>
-    <t>http://www.huawei.com</t>
-  </si>
-  <si>
-    <t>客户服务邮箱：</t>
-  </si>
-  <si>
-    <t>support@huawei.com</t>
-  </si>
-  <si>
-    <t>客户服务电话：</t>
   </si>
   <si>
     <t>序号</t>
@@ -3054,10 +2897,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Linux发行版缺陷列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>本文档给出Linux发行版的缺陷列表。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -5350,11 +5189,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5491,85 +5329,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -5578,26 +5341,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -5722,22 +5465,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5804,104 +5544,14 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="35" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5922,11 +5572,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规_sheet" xfId="2"/>
-    <cellStyle name="超链接 2" xfId="3"/>
+    <cellStyle name="超链接 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5939,149 +5588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 9" descr="image001.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="904875"/>
-          <a:ext cx="6591300" cy="3286125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>676275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1600200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 93" descr="附件1-16K"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6048375" y="6734175"/>
-          <a:ext cx="942975" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 16" descr="附件3-版权声明页图"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28575" y="9134475"/>
-          <a:ext cx="295275" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6491,360 +5997,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.25" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="23" customWidth="1"/>
-    <col min="6" max="41" width="10.625" style="23" customWidth="1"/>
-    <col min="42" max="16384" width="0" style="23" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" ht="37.35" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:10" ht="259.35000000000002" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" ht="111.6" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="36">
-        <v>42479</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" ht="130.35" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="42"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" customHeight="1">
-      <c r="A11" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="42" customHeight="1">
-      <c r="A17" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A18" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25">
-      <c r="A20" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="52">
-        <v>4008302118</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E9"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="mailto:Support@huawei.com"/>
-    <hyperlink ref="B22:D22" r:id="rId2" display="http://www.huawei.com"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="1.5748031496062993" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId3"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="4" man="1"/>
-  </rowBreaks>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -6863,10 +6018,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="59"/>
+      <c r="B2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="9" t="s">
@@ -6876,74 +6031,74 @@
     </row>
     <row r="4" spans="1:3" ht="114" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="59"/>
+      <c r="B4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="56"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="56"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="56"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="56"/>
+      <c r="B11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="58"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="16"/>
@@ -6963,10 +6118,10 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="18" t="s">
@@ -7023,11 +6178,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -7043,22 +6198,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.75" thickBot="1">
@@ -7066,19 +6221,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81.75" thickBot="1">
@@ -7086,19 +6241,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="53.25" thickBot="1">
@@ -7106,19 +6261,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="65.25" thickBot="1">
@@ -7126,19 +6281,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" thickBot="1">
@@ -7146,19 +6301,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="122.25" thickBot="1">
@@ -7166,19 +6321,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="189.75" thickBot="1">
@@ -7186,19 +6341,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="132" customHeight="1" thickBot="1">
@@ -7206,19 +6361,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" thickBot="1">
@@ -7226,19 +6381,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="53.25" thickBot="1">
@@ -7246,19 +6401,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="41.25" thickBot="1">
@@ -7266,19 +6421,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="81.75" thickBot="1">
@@ -7286,19 +6441,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="81.75" thickBot="1">
@@ -7306,19 +6461,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="81.75" thickBot="1">
@@ -7326,19 +6481,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="129.75" customHeight="1" thickBot="1">
@@ -7346,19 +6501,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="95.25" thickBot="1">
@@ -7366,19 +6521,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5" thickBot="1">
@@ -7386,19 +6541,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
@@ -7406,159 +6561,159 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="95.25" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>157</v>
+      <c r="B20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>150</v>
+        <v>101</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27.75" thickBot="1">
-      <c r="A21" s="37">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>128</v>
+      <c r="B21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A22" s="37">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A23" s="37">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>136</v>
+      <c r="B23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="243.75" thickBot="1">
-      <c r="A24" s="37">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>140</v>
+      <c r="B24" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="80.25" thickBot="1">
-      <c r="A25" s="37">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>142</v>
+      <c r="B25" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A26" s="37">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>143</v>
+      <c r="B26" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="15" windowWidth="17445" windowHeight="10260"/>
+    <workbookView xWindow="-225" yWindow="165" windowWidth="20730" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
   <si>
     <t>官方补丁链接</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1314,66 +1314,6 @@
   </si>
   <si>
     <r>
-      <t>CentOS 6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Oracle Linux Server release 6.3~6.5 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -1890,10 +1830,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Novell SuSE Linux Enterprise Server 11 SP3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1999,11 +1935,6 @@
       </rPr>
       <t>共存，而它们实际上指向同一个设备。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 当应用程序通过模拟的设备访问文件系统或者网络时，性能将会降低。
-2. 一个设备存在两个可访问的对象时，可能对虚拟机数据一致性造成影响。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3197,12 +3128,1543 @@
   </si>
   <si>
     <r>
-      <t>CentOS 6.3 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t>CentOS 5.11 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 5.11 32/64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机内核缺陷,导致虚拟机无法安装uvp-monitor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法通过虚拟化主机获取虚拟机的扩展信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无修复方法。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置网卡时，ifcfg-ethX配置文件中缺少” HWADDR=xx:xx:xx:xx”一项，系统在重启后，网口无法根据ifcfg-ethX配置文件中的MAC地址来进行名称关联，导致虚拟机网卡名变成_tmpx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虚拟机配置网卡后，重启虚拟机网卡名变成_tmpx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bugzilla.redhat.com/show_bug.cgi?id=224662 
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Red Hat Enterprise Linux 6.4 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS/Oracle Linux/Red Hat Enterprise Linux 6.4/6.5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle Linux 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机反复热迁移，概率发生迁移到目的端后恢复卡住的问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=72978b2fe2f2cdf9f319c6c6dcdbe92b38de2be2
+http://git.kernel.org/cgit/linux/kernel/git/tip/tip.git/commit/?id=c4288334818c81c946acb23d2319881f58c3d497</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题可降低热迁移卡死的概率。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 5.11  32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机休眠、内存快照和热迁移失败。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方还没有补丁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机执行休眠失败、热迁移失败或执行内存快照后无法外部重启虚拟机,无法再进行热迁移，休眠和内存快照。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无修复方法。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.3 64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方还没有补丁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/etc/sysconfig/network-scripts/ifcfg-ethX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件中，添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”HWADDR=xx:xx:xx:xx”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项即可解决。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是虚拟机内核缺陷。虚拟机内核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>balloon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动在计算内存时将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置空间、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>holes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等计算在内，使得总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超过配置值，因此虚拟机内核启动后便会做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>balloon out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导致虚拟机配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上内存时，虚拟机实际内存大小比配置的内存大小少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把以下内容追加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“/etc/modprobe.d/blacklist.conf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个文件的末尾，使得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">网卡的驱动在虚拟机启动过程中无法加载：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>alias 8139cp off
+install 8139cp :
+alias 8139too off
+install 8139too :
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重启虚拟机生效。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机内核自身缺陷，在反复热迁移时有概率发生虚拟机卡住的情况。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机暂停失败时，虚拟磁盘申请的授权引用不会释放，而虚拟磁盘存在缺陷，导致其无法处理暂停失败的场景。若在该失败场景下，恢复磁盘会导致申请授权引用失败，虚拟机卡死。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用虚拟机快照功能后，虚拟机卡死。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机默认使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁盘，未使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半虚拟化磁盘。当执行虚拟机休眠时，需要暂停虚拟机，且暂停虚拟机后会，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Domain0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将会结束该虚拟机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程，由于虚拟机使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁盘无法处理它在暂停阶段产生的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，导致暂停过程超时失败。该缺陷同样存在于虚拟机的内存快照和热迁移功能中。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核缺陷。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对虚拟机下发休眠，该虚拟机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenstore watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将被注销，若休眠失败，其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenstore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机制无法处理该失败场景，即失败回退处理过程中未重新注册休眠时已注销的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenstore watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，导致休眠失败后，对该虚拟机下发的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作均无法响应，例如在用户界面下发重启虚拟机失败。该缺陷同样存在于热迁移和内存快照功能中。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录虚拟机，确认是否存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端驱动，在虚拟机内部执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lsmod | grep xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令，若命令回显中有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xen_vnif,xen_vbd,xen_platform_pci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以确认虚拟机自带了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端驱动，若没有这几个模块，则说明没有带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">前端驱动模块，建议不要再使用此虚拟机。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看虚拟机是否存在两个设备对象。执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fdisk -l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看是否存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/dev/xvda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/dev/sda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两个磁盘设备；执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ifconfig -a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看是否存在两个有相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地址的网卡设备。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若存在两个磁盘设备，修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/boot/grub/menu.lst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ide0=noprobe hdc=noprobe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，虚拟机不再使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">磁盘设备。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若存在两个网卡设备，禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网卡驱动的加载，将以下内容追加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“/etc/modprobe.d/blacklist.conf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">这个文件的末尾：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>alias 8139cp off
+install 8139cp :
+alias 8139too off
+install 8139too :
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端驱动加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>initrd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件里面，执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mkinitrd -f /boot/initrd-$(uname -r).img $(uname -r) --with=xen_vbd --with=xen_vnif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重启虚拟机。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是虚拟机自身缺陷。虚拟机启动后，将会呈现两套网卡（一个为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Qemu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网卡，另一个为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半虚拟化前端网卡），其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址相同。如果虚拟机所在的组网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DHCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式，这两张网卡被分配的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能相同。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=274b045509175db0405c784be85e8cce116e6f7d
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">当应用程序通过模拟的设备访问文件系统或者网络时，性能将会降低。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">一个设备存在两个可访问的对象时，可能对虚拟机数据一致性造成影响。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个设备存在两个可访问的对象时，导致磁盘扩展信息错误</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Novell SuSE Linux Enterprise Server 11 SP3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreOS 1010.5.0
+CoreOS 1068.2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户态程序访问xenbus会卡死，例如运行uvp-monitor进程卡死。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://xenbits.xen.org/gitweb/?p=xen.git;a=commitdiff;h=9c89dc95201ffed5fead17b35754bf9440fdbdc0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机休眠、唤醒、热迁移失败。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/next/linux-next.git/commit/drivers/block/xen-blkfront.c?id=efd1535270c1deb0487527bf0c3c827301a69c93</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CoreOS 1010.5.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CoreOS 1068.2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+其他内核版本为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.5.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.6.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发行系统</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3213,36 +4675,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS 6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3253,16 +4693,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.6 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3273,16 +4711,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.7 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.8 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3293,16 +4729,14 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 7.0 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 7.1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3313,16 +4747,54 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.4 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 7.2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Debian 6/7/8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系列
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fedora 23 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3333,31 +4805,16 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS 6.3 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Linux 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3368,32 +4825,16 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS 6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3404,14 +4845,16 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.6 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 7.1 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3422,287 +4865,11 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.7 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.4 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.6 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS 5.11 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CentOS 5.11 32/64位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机内核缺陷,导致虚拟机无法安装uvp-monitor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法通过虚拟化主机获取虚拟机的扩展信息。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无修复方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置网卡时，ifcfg-ethX配置文件中缺少” HWADDR=xx:xx:xx:xx”一项，系统在重启后，网口无法根据ifcfg-ethX配置文件中的MAC地址来进行名称关联，导致虚拟机网卡名变成_tmpx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 虚拟机配置网卡后，重启虚拟机网卡名变成_tmpx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bugzilla.redhat.com/show_bug.cgi?id=224662 
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Red Hat Enterprise Linux 6.4 32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS/Oracle Linux/Red Hat Enterprise Linux 6.4/6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle Linux 6.7 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机反复热迁移，概率发生迁移到目的端后恢复卡住的问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=72978b2fe2f2cdf9f319c6c6dcdbe92b38de2be2
-http://git.kernel.org/cgit/linux/kernel/git/tip/tip.git/commit/?id=c4288334818c81c946acb23d2319881f58c3d497</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考补丁链接修复该问题可降低热迁移卡死的概率。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CentOS 5.11  32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机休眠、内存快照和热迁移失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方还没有补丁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机执行休眠失败、热迁移失败或执行内存快照后无法外部重启虚拟机,无法再进行热迁移，休眠和内存快照。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无修复方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.4 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-CentOS 6.5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CentOS 6.7 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Debian 6/7/8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">系列
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 7.2 64</t>
     </r>
     <r>
       <rPr>
@@ -3749,65 +4916,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS 6.3 64位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方还没有补丁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/etc/sysconfig/network-scripts/ifcfg-ethX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置文件中，添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”HWADDR=xx:xx:xx:xx”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项即可解决。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>CentOS 5.11 32/64</t>
     </r>
@@ -3845,7 +4953,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CentOS 6.4 64</t>
+      <t>CentOS 6.4 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3863,7 +4971,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-CentOS 6.5 64</t>
+CentOS 6.5 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3881,7 +4989,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CentOS 6.6 32</t>
+      <t>CentOS 6.6 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3899,7 +5007,61 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CentOS 6.7 64</t>
+      <t>CentOS 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.8 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 7.1 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 7.2 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3935,7 +5097,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Novell SuSE Linux Enterprise Server 11 SP4 64</t>
+      <t>EulerOS 2.1.RC5 64</t>
     </r>
     <r>
       <rPr>
@@ -3953,7 +5115,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Oracle Linux 6.4 32/64</t>
+      <t>Fedora 23 64</t>
     </r>
     <r>
       <rPr>
@@ -3971,7 +5133,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Oracle Linux 6.7 64</t>
+      <t>Novell SuSE Linux Enterprise Server 11 SP3 32/64</t>
     </r>
     <r>
       <rPr>
@@ -3989,7 +5151,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+      <t>Novell SuSE Linux Enterprise Server 11 SP4 64</t>
     </r>
     <r>
       <rPr>
@@ -4007,7 +5169,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Red Hat Enterprise Linux 6.6 64</t>
+      <t>Oracle Linux 6.4 32/64</t>
     </r>
     <r>
       <rPr>
@@ -4025,7 +5187,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CentOS/Red Hat Enterprise Linux 7.0/7.1 64</t>
+      <t>Oracle Linux 6.7 32/64</t>
     </r>
     <r>
       <rPr>
@@ -4043,6 +5205,114 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>Oracle Linux 7.0 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Linux 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS/Red Hat Enterprise Linux 7.0/7.1 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Ubuntu 12</t>
     </r>
     <r>
@@ -4052,470 +5322,900 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这是虚拟机内核缺陷。虚拟机内核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>balloon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驱动在计算内存时将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置空间、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>holes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等计算在内，使得总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RAM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超过配置值，因此虚拟机内核启动后便会做</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>balloon out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导致虚拟机配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以上内存时，虚拟机实际内存大小比配置的内存大小少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>左右。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>把以下内容追加到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“/etc/modprobe.d/blacklist.conf”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个文件的末尾，使得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8139</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">网卡的驱动在虚拟机启动过程中无法加载：
+      <t xml:space="preserve">系列
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>alias 8139cp off
-install 8139cp :
-alias 8139too off
-install 8139too :
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重启虚拟机生效。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机内核自身缺陷，在反复热迁移时有概率发生虚拟机卡住的情况。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机暂停失败时，虚拟磁盘申请的授权引用不会释放，而虚拟磁盘存在缺陷，导致其无法处理暂停失败的场景。若在该失败场景下，恢复磁盘会导致申请授权引用失败，虚拟机卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用虚拟机快照功能后，虚拟机卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟机默认使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Qemu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模拟的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>磁盘，未使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>半虚拟化磁盘。当执行虚拟机休眠时，需要暂停虚拟机，且暂停虚拟机后会，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Domain0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将会结束该虚拟机的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Qemu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进程，由于虚拟机使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Qemu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模拟的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>磁盘无法处理它在暂停阶段产生的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，导致暂停过程超时失败。该缺陷同样存在于虚拟机的内存快照和热迁移功能中。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟机内核缺陷。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对虚拟机下发休眠，该虚拟机的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xenstore watch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将被注销，若休眠失败，其</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ubuntu server 14.04.3 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ubuntu server 14.04.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EulerOS 2.1.RC5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Oracle Linux Server release 6.3~6.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Linux 6.7 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Linux 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 7.1 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ubuntu server 12.04.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.3 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.8 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 7.0 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oracle Enterprise Linux 6.7 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.3 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+CentOS 6.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.8 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Debian GNU/Linux 8.2.0 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Fedora 23 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Oracle Linux  7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ubuntu server 14.04.3 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机前端网卡驱动的缺陷。若通过主机卸载虚拟机内部处于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态的网卡，虚拟机前端网卡驱动将调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>napi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步函数，执行该函数会导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xenwatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核线程变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热拔虚拟机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态的网卡，将导致该虚拟机的所有虚拟化特性无法使用，如网卡热插拔、磁盘热插、关机、重启、热迁移等。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考补丁链接修复该问题。
+建议：不要热拔处于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态的网卡。若用户触发该缺陷，需要强制重启虚拟机恢复。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机内核缺陷，在前后端虚拟磁盘驱动状态切换时，虚拟磁盘驱动存在处理xenwatch的时序问题，当虚拟机热迁移或休眠、唤醒时，虚拟磁盘驱动多处理了一次XenbusStateConnected状态，导致虚拟机卡死。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机自带的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>libxenstore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件存在缺陷。该虚拟机默认安装的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>libxenstore.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库文件缺省访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/proc/xen/xenbus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口文件，当用户态程序（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>uvp-monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>libxenstore.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xen watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，将会触发虚拟机内核对</t>
     </r>
     <r>
       <rPr>
@@ -4534,653 +6234,423 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>机制无法处理该失败场景，即失败回退处理过程中未重新注册休眠时已注销的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xenstore watch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，导致休眠失败后，对该虚拟机下发的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>watch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作均无法响应，例如在用户界面下发重启虚拟机失败。该缺陷同样存在于热迁移和内存快照功能中。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录虚拟机，确认是否存在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前端驱动，在虚拟机内部执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lsmod | grep xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命令，若命令回显中有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xen_vnif,xen_vbd,xen_platform_pci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，可以确认虚拟机自带了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前端驱动，若没有这几个模块，则说明没有带</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">前端驱动模块，建议不要再使用此虚拟机。
+      <t>的读写与内核进程文件系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁机制冲突的问题，导致程序卡死的现象。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Linux kernel 4.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">及以上版本的操作系统，如：
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看虚拟机是否存在两个设备对象。执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fdisk -l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，查看是否存在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/dev/xvda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/dev/sda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两个磁盘设备；执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ifconfig -a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，查看是否存在两个有相同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地址的网卡设备。
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CoreOS Stable 1068.2.0 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机操作系统的内核使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Intel Haswell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Invalidate Processor-Context Identifier”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特性，导致兼容性问题。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>crash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，无法使用。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以通过在虚拟机内部禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Invalidate Processor-Context Identifier”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特性，解决虚拟机启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>crash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的问题，操作步骤如下：
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若存在两个磁盘设备，修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/boot/grub/menu.lst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件，添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ide0=noprobe hdc=noprobe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，虚拟机不再使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">磁盘设备。
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动虚拟机，立即打开虚拟机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在弹出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>grub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选项的界面中按任意键（除回车键外），使其停留在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>grub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">选项界面。
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若存在两个网卡设备，禁用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8139</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网卡驱动的加载，将以下内容追加到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“/etc/modprobe.d/blacklist.conf”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">这个文件的末尾：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>alias 8139cp off
-install 8139cp :
-alias 8139too off
-install 8139too :
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>把</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前端驱动加到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>initrd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件里面，执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mkinitrd -f /boot/initrd-$(uname -r).img $(uname -r) --with=xen_vbd --with=xen_vnif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重启虚拟机。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这是虚拟机自身缺陷。虚拟机启动后，将会呈现两套网卡（一个为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Qemu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模拟的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8139</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网卡，另一个为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>半虚拟化前端网卡），其</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址相同。如果虚拟机所在的组网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分配使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DHCP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方式，这两张网卡被分配的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可能相同。</t>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编辑待启动项，在该启动项中添加内核参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>noinvpcid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。例如，系统使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>grub2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在该启动项的以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“linux”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头的选项行尾添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>noinvpcid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">“linux$suf /coreos/vmlinuz-a mount.usr=PARTUUID=$usr_uuid $linux_cmdline </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>noinvpcid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，完成添加后，保存并启动虚拟机；</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5329,12 +6799,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -5354,6 +6818,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF010000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5472,7 +6943,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5547,7 +7018,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5999,9 +7470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -6019,7 +7488,7 @@
     <row r="2" spans="1:3" ht="72" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="29"/>
     </row>
@@ -6032,7 +7501,7 @@
     <row r="4" spans="1:3" ht="114" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="29"/>
     </row>
@@ -6051,7 +7520,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="26"/>
     </row>
@@ -6180,10 +7649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6201,7 +7670,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>17</v>
@@ -6221,13 +7690,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -6241,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -6281,7 +7750,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>36</v>
@@ -6293,7 +7762,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" thickBot="1">
@@ -6301,7 +7770,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -6313,18 +7782,18 @@
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="122.25" thickBot="1">
+    <row r="7" spans="1:6" ht="230.25" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -6336,18 +7805,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="189.75" thickBot="1">
+    <row r="8" spans="1:6" ht="338.25" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>46</v>
@@ -6370,10 +7839,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" thickBot="1">
@@ -6396,18 +7865,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="53.25" thickBot="1">
+    <row r="11" spans="1:6" ht="122.25" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -6421,16 +7890,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>42</v>
@@ -6441,39 +7910,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="81.75" thickBot="1">
+    <row r="14" spans="1:6" ht="117.75" thickBot="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="81.75" thickBot="1">
@@ -6481,56 +7950,56 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="129.75" customHeight="1" thickBot="1">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" ht="135.75" thickBot="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="95.25" thickBot="1">
+    <row r="17" spans="1:6" ht="108.75" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>42</v>
@@ -6541,33 +8010,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
@@ -6581,139 +8050,219 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27.75" thickBot="1">
-      <c r="A21" s="22">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A22" s="22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="D22" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A23" s="22">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="243.75" thickBot="1">
-      <c r="A24" s="22">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="80.25" thickBot="1">
-      <c r="A25" s="22">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A26" s="22">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="D26" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="68.25" thickBot="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="68.25" thickBot="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="108.75" thickBot="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6726,8 +8275,10 @@
     <hyperlink ref="E17" r:id="rId5" display="https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=2fb3683e7b164ee2b324039f7c9d90fe5b1a259b"/>
     <hyperlink ref="E15" r:id="rId6"/>
     <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="E27" r:id="rId8"/>
+    <hyperlink ref="E28" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
 </worksheet>
 </file>
--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -21,54 +21,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="183">
   <si>
     <t>官方补丁链接</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>概述</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>读者对象</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>结构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改记录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改记录累积了每次文档更新的说明。最新版本的文档包含以前所有文档版本的更新内容。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>更新说明</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次正式发布。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建议处理方法</t>
@@ -100,7 +92,7 @@
   </si>
   <si>
     <t>操作系统类型</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>说明缺陷可能引起的现象和造成的影响。</t>
@@ -110,9 +102,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>序号</t>
@@ -127,9 +118,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>建议处理方法</t>
@@ -140,9 +130,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>系统缺省的</t>
@@ -150,7 +139,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -159,9 +148,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>组件版本在</t>
@@ -169,7 +157,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -178,9 +166,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>平台上运行存在缺陷。</t>
@@ -199,9 +186,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>存在问题的虚拟机采用</t>
@@ -209,7 +195,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -218,9 +204,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>版本为基线的</t>
@@ -228,7 +213,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -237,9 +222,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内核，该版本内核的</t>
@@ -247,7 +231,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -256,9 +240,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>子系统在</t>
@@ -266,7 +249,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -275,9 +258,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>过程中存在概率性失败问题。当</t>
@@ -285,7 +267,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -294,9 +276,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>被</t>
@@ -304,7 +285,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -313,9 +294,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>失败，则终止系统</t>
@@ -323,7 +303,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -332,9 +312,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>流程，虚拟机</t>
@@ -342,7 +321,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -351,9 +330,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>失败，导致虚拟机热迁移失败</t>
@@ -361,7 +339,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -370,9 +348,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -393,9 +370,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>参考补丁链接修复该问题或升级到指定内核版本（</t>
@@ -403,7 +379,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -412,9 +388,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>或更高版本）解决问题。</t>
@@ -425,9 +400,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>所有</t>
@@ -435,7 +409,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -444,9 +418,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>发行系统</t>
@@ -457,9 +430,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>在虚拟机热迁移到目的端后，</t>
@@ -467,7 +439,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -476,9 +448,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>被虚拟机内核调度出去完成需要访问磁盘或者有内存</t>
@@ -486,7 +457,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -495,9 +466,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>磁盘的工作，导致虚拟机恢复流程被打断，而此时磁盘没有恢复，目的端虚拟机就出现卡死现象。</t>
@@ -512,9 +482,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>官方还没有补丁</t>
@@ -529,9 +498,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机的内核</t>
@@ -539,7 +507,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -548,9 +516,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>调度器存在缺陷：内核调度策略中，</t>
@@ -558,7 +525,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -567,9 +534,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的优先级不够高，被其他内核进程阻塞，导致</t>
@@ -577,7 +543,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -586,9 +552,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内核线程得不到调度。</t>
@@ -599,9 +564,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机热迁移后卡住时间超过</t>
@@ -609,7 +573,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -618,9 +582,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>分钟才能恢复，卡住时无法使用虚拟机，同样存在同样问题的特性还包括快照恢复、休眠唤醒。</t>
@@ -631,9 +594,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>官方新版本已经解决</t>
@@ -644,9 +606,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机的内核实现存在缺陷，导致只支持</t>
@@ -654,7 +615,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -663,9 +624,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>个</t>
@@ -673,7 +633,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -682,9 +642,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。该缺陷在</t>
@@ -692,7 +651,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -701,9 +660,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>中得到修复。</t>
@@ -714,9 +672,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机不支持超过</t>
@@ -724,7 +681,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -733,9 +690,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>个</t>
@@ -743,7 +699,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -752,9 +708,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -773,9 +728,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>多</t>
@@ -783,7 +737,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -792,9 +746,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>配置的虚拟机使用快照恢复会卡死。</t>
@@ -809,9 +762,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机内核在计算最大内存时，把</t>
@@ -819,7 +771,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -828,9 +780,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>包含在内，导致计算的数值大于实际虚拟机内存，触发虚拟机内存</t>
@@ -838,7 +789,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -847,9 +798,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，从而虚拟机实际内存值小于分配值且概率</t>
@@ -857,7 +807,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -866,9 +816,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -883,9 +832,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>所有</t>
@@ -893,7 +841,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -902,9 +850,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内核的虚拟机</t>
@@ -915,9 +862,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机跨三层交换机热迁移到对端后，目的端交换机无法感知虚拟机迁移完成，无法及时更新交换机的</t>
@@ -925,7 +871,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -934,9 +880,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>表</t>
@@ -944,7 +889,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -953,9 +898,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>邻居缓存表，导致虚拟机网络不通。</t>
@@ -973,9 +917,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>系列</t>
@@ -986,9 +929,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机的</t>
@@ -996,7 +938,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1005,9 +947,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>存在缺陷。</t>
@@ -1015,7 +956,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1024,9 +965,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前端网卡在注册时未获取网卡的</t>
@@ -1034,7 +974,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1043,9 +983,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>地址信息，因该网卡信息不全的</t>
@@ -1053,7 +992,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1062,9 +1001,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>无法正确与其记录的持久化规则匹配，导致网卡和原规则已记录网卡的设备名冲突，</t>
@@ -1072,7 +1010,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1081,9 +1019,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>将在新增网卡设备名前面添加</t>
@@ -1091,7 +1028,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1100,9 +1037,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的标签，由</t>
@@ -1110,7 +1046,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1119,9 +1055,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（为网卡名称，如</t>
@@ -1129,7 +1064,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1138,9 +1073,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）改为</t>
@@ -1148,7 +1082,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1157,9 +1091,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1170,9 +1103,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机重启后网卡设备名变为</t>
@@ -1180,7 +1112,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1189,9 +1121,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1202,9 +1133,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>勘误版本获取链接：</t>
@@ -1212,7 +1142,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1227,9 +1157,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>官网提供的</t>
@@ -1237,7 +1166,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1246,9 +1175,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>版本的</t>
@@ -1256,7 +1184,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1265,9 +1193,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>已解决该问题，建议升级</t>
@@ -1275,7 +1202,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1284,9 +1211,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>版本到</t>
@@ -1294,7 +1220,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1303,9 +1229,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>版本及以上版本。</t>
@@ -1316,9 +1241,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机内核存在缺陷。在虚拟机热迁移过程中，其内核会对</t>
@@ -1326,7 +1250,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1335,9 +1259,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前后端设备、</t>
@@ -1345,7 +1268,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1354,9 +1277,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟设备执行</t>
@@ -1364,7 +1286,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1373,9 +1295,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -1383,7 +1304,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1392,9 +1313,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>操作，其中操作</t>
@@ -1402,7 +1322,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1411,9 +1331,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟设备需要耗时</t>
@@ -1421,7 +1340,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1430,9 +1349,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>秒左右，这段时间虚拟机无法响应外部请求</t>
@@ -1440,9 +1358,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1460,9 +1377,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -1473,9 +1389,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机采用的</t>
@@ -1483,7 +1398,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1492,9 +1407,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>版本为</t>
@@ -1502,7 +1416,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1511,9 +1425,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，该版本存在缺陷，由它生成的</t>
@@ -1521,7 +1434,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1530,9 +1443,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模块存在定时器删除和使用的竞争问题，导致系统</t>
@@ -1540,7 +1452,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1549,9 +1461,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1562,9 +1473,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机启动时概率</t>
@@ -1572,7 +1482,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1581,9 +1491,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1598,9 +1507,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机内核存在缺陷。用户态程序通过</t>
@@ -1608,7 +1516,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1617,9 +1525,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>设置一个</t>
@@ -1627,7 +1534,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1636,9 +1543,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>读取时，</t>
@@ -1646,7 +1552,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1655,9 +1561,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内核进程文件系统（</t>
@@ -1665,7 +1570,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1674,9 +1579,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）新增的</t>
@@ -1684,7 +1588,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1693,9 +1597,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>会使该程序死锁在“</t>
@@ -1703,7 +1606,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1712,9 +1615,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>读取锁”上</t>
@@ -1722,9 +1624,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1735,9 +1636,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>用户态程序访问</t>
@@ -1745,7 +1645,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1754,9 +1654,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>会卡死，例如运行</t>
@@ -1764,7 +1663,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1773,9 +1672,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>进程卡死。</t>
@@ -1789,9 +1687,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>补丁：</t>
@@ -1799,7 +1696,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1810,9 +1707,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内核补丁：</t>
@@ -1820,7 +1716,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1833,9 +1729,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机在使用默认配置启动时，虚拟机内核驱动能够同时探测到</t>
@@ -1843,7 +1738,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1852,9 +1747,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟的设备及</t>
@@ -1862,7 +1756,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1871,9 +1765,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>后端设备并使其生效，例如为虚拟机配置一个磁盘（</t>
@@ -1881,7 +1774,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1890,9 +1783,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>盘），但到虚拟机内部可以查看到</t>
@@ -1900,7 +1792,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1909,9 +1801,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -1919,7 +1810,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1928,9 +1819,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>共存，而它们实际上指向同一个设备。</t>
@@ -1941,9 +1831,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>通过配置</t>
@@ -1951,7 +1840,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1960,9 +1849,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的模块参数</t>
@@ -1970,7 +1858,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1979,9 +1867,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>实现屏蔽模拟设备的功能，完整参数为</t>
@@ -1989,7 +1876,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2001,9 +1888,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>添加上述的内核参数，则需要修改</t>
@@ -2011,7 +1897,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2020,9 +1906,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -2030,7 +1915,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2039,9 +1924,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的挂载设备名。如将</t>
@@ -2049,7 +1933,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2058,9 +1942,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>修改为</t>
@@ -2068,7 +1951,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2077,9 +1960,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -2094,9 +1976,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>在主机</t>
@@ -2104,7 +1985,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2113,9 +1994,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>压力较大的场景下启动虚拟机，可能造成虚拟机的</t>
@@ -2123,7 +2003,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2132,9 +2012,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>在</t>
@@ -2142,7 +2021,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2151,9 +2030,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>过程中，在设置为</t>
@@ -2161,7 +2039,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2170,9 +2048,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态和</t>
@@ -2180,7 +2057,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2189,9 +2066,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态之间被调度出去，而</t>
@@ -2199,7 +2075,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2208,9 +2084,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>此时为该</t>
@@ -2218,7 +2093,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2227,9 +2102,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>迁移</t>
@@ -2237,7 +2111,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2246,9 +2120,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>相关的内核线程（例如</t>
@@ -2256,7 +2129,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2265,9 +2138,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>等）失败，导致这些线程</t>
@@ -2275,7 +2147,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2284,9 +2156,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -2305,9 +2176,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机</t>
@@ -2315,7 +2185,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2324,9 +2194,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前端网卡驱动存在缺陷，在删除授权引用时会引起资源泄漏，导致对虚拟机反复下发热插拔网卡失败。</t>
@@ -2337,9 +2206,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>用户对虚拟机进行反复热插拔网卡，约</t>
@@ -2347,7 +2215,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2356,9 +2224,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>次后，虚拟机无法再次执行网卡热插拔或磁盘热插。</t>
@@ -2373,9 +2240,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机内核未提供用户态程序访问</t>
@@ -2383,7 +2249,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2392,9 +2258,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的接口（如：</t>
@@ -2402,7 +2267,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2411,9 +2276,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文件或</t>
@@ -2421,7 +2285,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2430,9 +2294,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文件），导致</t>
@@ -2440,7 +2303,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2449,9 +2312,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>无法运行。</t>
@@ -2473,9 +2335,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>系列</t>
@@ -2489,9 +2350,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">系列
@@ -2500,7 +2360,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2516,9 +2376,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机在使用快照恢复功能时，其内核会重新设置</t>
@@ -2526,7 +2385,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2535,9 +2394,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的内存地址，但新设置没有通知</t>
@@ -2545,7 +2403,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2554,9 +2412,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，导致除</t>
@@ -2564,7 +2421,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2573,9 +2430,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>之外的其他</t>
@@ -2583,7 +2439,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2592,9 +2448,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>地址异常。所以虚拟机除</t>
@@ -2602,7 +2457,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2611,9 +2466,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>外的其他</t>
@@ -2621,7 +2475,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2630,9 +2484,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>均无法处理中断，导致虚拟机处于卡住状态。</t>
@@ -2643,9 +2496,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机实际内存值小于主机分配的内存值且概率性</t>
@@ -2653,7 +2505,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2662,9 +2514,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -2675,9 +2526,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>升级到指定内核版本（</t>
@@ -2685,7 +2535,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2694,9 +2544,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>或更高版本）解决问题。</t>
@@ -2721,9 +2570,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>增加了</t>
@@ -2731,7 +2579,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2740,9 +2588,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前端网卡链接可以发送</t>
@@ -2750,7 +2597,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2759,9 +2606,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的功能：</t>
@@ -2769,7 +2615,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2780,9 +2626,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>优化了</t>
@@ -2790,7 +2635,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2799,9 +2644,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">发送的时序
@@ -2810,7 +2654,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2823,13 +2667,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">本文档主要适用于需要编译UVP Tools源码的用户。
-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>本文档给出Linux发行版的缺陷列表。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CentOS 6.5 64位
@@ -2840,9 +2679,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机内核在处理热迁移恢复流程，增加了对</t>
@@ -2850,7 +2688,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2859,9 +2697,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟设备的恢复操作，该操作耗时约为</t>
@@ -2869,7 +2706,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2878,9 +2715,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>秒，设备恢复过程中虚拟机无法响应网络传输。</t>
@@ -2891,9 +2727,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>管理员对虚拟机进行热迁移，</t>
@@ -2901,7 +2736,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2910,9 +2745,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机网络将丢包，持续约</t>
@@ -2920,7 +2754,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2929,9 +2763,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>秒。</t>
@@ -2942,9 +2775,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>官方还没有补丁</t>
@@ -2965,7 +2797,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>此缺陷会导致用户使用</t>
@@ -2982,7 +2813,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>等命令查看到的虚拟机内存比规划配置的内存少</t>
@@ -2999,7 +2829,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>左右，且缺少的这部分内存也无法被使用（例如：配</t>
@@ -3016,7 +2845,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>会少</t>
@@ -3033,7 +2861,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；配</t>
@@ -3050,7 +2877,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>会少</t>
@@ -3067,7 +2893,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）。</t>
@@ -3081,9 +2906,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3091,7 +2915,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3101,9 +2925,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3118,9 +2941,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>官方还没有补丁</t>
@@ -3133,9 +2955,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3182,9 +3003,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3192,7 +3012,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3202,9 +3022,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3218,9 +3037,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3247,9 +3065,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -3284,9 +3101,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>在</t>
@@ -3294,7 +3110,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3303,9 +3119,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>配置文件中，添加</t>
@@ -3313,7 +3128,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3322,9 +3137,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>项即可解决。</t>
@@ -3336,7 +3150,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>这是虚拟机内核缺陷。虚拟机内核</t>
@@ -3353,7 +3166,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>驱动在计算内存时将</t>
@@ -3370,7 +3182,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>配置空间、</t>
@@ -3387,7 +3198,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>等计算在内，使得总</t>
@@ -3404,7 +3214,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>超过配置值，因此虚拟机内核启动后便会做</t>
@@ -3421,7 +3230,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>操作</t>
@@ -3438,7 +3246,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>导致虚拟机配置</t>
@@ -3455,7 +3262,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>以上内存时，虚拟机实际内存大小比配置的内存大小少</t>
@@ -3472,7 +3278,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>左右。</t>
@@ -3486,9 +3291,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>把以下内容追加到</t>
@@ -3496,7 +3300,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3505,9 +3309,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>这个文件的末尾，使得</t>
@@ -3515,7 +3318,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3524,9 +3327,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">网卡的驱动在虚拟机启动过程中无法加载：
@@ -3535,7 +3337,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3548,9 +3350,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>重启虚拟机生效。</t>
@@ -3573,9 +3374,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机默认使用</t>
@@ -3583,7 +3383,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3592,9 +3392,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟的</t>
@@ -3602,7 +3401,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3611,9 +3410,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>磁盘，未使用</t>
@@ -3621,7 +3419,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3630,9 +3428,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>半虚拟化磁盘。当执行虚拟机休眠时，需要暂停虚拟机，且暂停虚拟机后会，</t>
@@ -3640,7 +3437,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3649,9 +3446,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>将会结束该虚拟机的</t>
@@ -3659,7 +3455,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3668,9 +3464,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>进程，由于虚拟机使用</t>
@@ -3678,7 +3473,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3687,9 +3482,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟的</t>
@@ -3697,7 +3491,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3706,9 +3500,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>磁盘无法处理它在暂停阶段产生的</t>
@@ -3716,7 +3509,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3725,9 +3518,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，导致暂停过程超时失败。该缺陷同样存在于虚拟机的内存快照和热迁移功能中。</t>
@@ -3738,9 +3530,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机内核缺陷。</t>
@@ -3748,7 +3539,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3757,9 +3548,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>对虚拟机下发休眠，该虚拟机的</t>
@@ -3767,7 +3557,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3776,9 +3566,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>将被注销，若休眠失败，其</t>
@@ -3786,7 +3575,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3795,9 +3584,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>机制无法处理该失败场景，即失败回退处理过程中未重新注册休眠时已注销的</t>
@@ -3805,7 +3593,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3814,9 +3602,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，导致休眠失败后，对该虚拟机下发的</t>
@@ -3824,7 +3611,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3833,9 +3620,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>操作均无法响应，例如在用户界面下发重启虚拟机失败。该缺陷同样存在于热迁移和内存快照功能中。</t>
@@ -3849,9 +3635,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>登录虚拟机，确认是否存在</t>
@@ -3859,7 +3644,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3868,9 +3653,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前端驱动，在虚拟机内部执行</t>
@@ -3878,7 +3662,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3887,9 +3671,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>命令，若命令回显中有</t>
@@ -3897,7 +3680,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3906,9 +3689,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，可以确认虚拟机自带了</t>
@@ -3916,7 +3698,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3925,9 +3707,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前端驱动，若没有这几个模块，则说明没有带</t>
@@ -3935,7 +3716,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3944,9 +3725,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端驱动模块，建议不要再使用此虚拟机。
@@ -3955,7 +3735,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3964,9 +3744,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>查看虚拟机是否存在两个设备对象。执行</t>
@@ -3974,7 +3753,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3983,9 +3762,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，查看是否存在</t>
@@ -3993,7 +3771,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4002,9 +3780,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -4012,7 +3789,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4021,9 +3798,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>两个磁盘设备；执行</t>
@@ -4031,7 +3807,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4040,9 +3816,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，查看是否存在两个有相同</t>
@@ -4050,7 +3825,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4059,9 +3834,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">地址的网卡设备。
@@ -4070,7 +3844,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4079,9 +3853,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>若存在两个磁盘设备，修改</t>
@@ -4089,7 +3862,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4098,9 +3871,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文件，添加</t>
@@ -4108,7 +3880,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4117,9 +3889,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，虚拟机不再使用</t>
@@ -4127,7 +3898,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4136,9 +3907,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">磁盘设备。
@@ -4147,7 +3917,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4156,9 +3926,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>若存在两个网卡设备，禁用</t>
@@ -4166,7 +3935,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4175,9 +3944,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>网卡驱动的加载，将以下内容追加到</t>
@@ -4185,7 +3953,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4194,9 +3962,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">这个文件的末尾：
@@ -4205,7 +3972,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4218,9 +3985,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>把</t>
@@ -4228,7 +3994,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4237,9 +4003,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>前端驱动加到</t>
@@ -4247,7 +4012,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4256,9 +4021,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文件里面，执行</t>
@@ -4266,7 +4030,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4275,9 +4039,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。
@@ -4286,7 +4049,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4295,9 +4058,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>重启虚拟机。</t>
@@ -4308,9 +4070,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>这是虚拟机自身缺陷。虚拟机启动后，将会呈现两套网卡（一个为</t>
@@ -4318,7 +4079,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4327,9 +4088,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>模拟的</t>
@@ -4337,7 +4097,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4346,9 +4106,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>网卡，另一个为</t>
@@ -4356,7 +4115,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4365,9 +4124,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>半虚拟化前端网卡），其</t>
@@ -4375,7 +4133,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4384,9 +4142,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>地址相同。如果虚拟机所在的组网</t>
@@ -4394,7 +4151,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4403,9 +4160,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>分配使用</t>
@@ -4413,7 +4169,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4422,9 +4178,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>方式，这两张网卡被分配的</t>
@@ -4432,7 +4187,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4441,9 +4196,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>可能相同。</t>
@@ -4462,9 +4216,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当应用程序通过模拟的设备访问文件系统或者网络时，性能将会降低。
@@ -4473,7 +4226,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4482,9 +4235,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">一个设备存在两个可访问的对象时，可能对虚拟机数据一致性造成影响。
@@ -4493,7 +4245,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4502,9 +4254,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>一个设备存在两个可访问的对象时，导致磁盘扩展信息错误</t>
@@ -4548,9 +4299,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -4559,7 +4309,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4568,9 +4318,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -4579,7 +4328,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4588,9 +4337,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -4598,7 +4346,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4607,9 +4355,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的所有</t>
@@ -4617,7 +4364,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4626,9 +4373,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>发行系统</t>
@@ -4648,7 +4394,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -4666,7 +4411,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4684,7 +4428,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4702,7 +4445,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4720,7 +4462,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4738,7 +4479,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4756,7 +4496,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -4764,7 +4503,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4774,9 +4513,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">系列
@@ -4785,7 +4523,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4794,9 +4532,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4805,7 +4542,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4814,9 +4551,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4825,7 +4561,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4834,9 +4570,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4845,7 +4580,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4854,9 +4589,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4865,7 +4599,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4874,9 +4608,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -4884,7 +4617,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4897,9 +4630,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>系列</t>
@@ -4907,7 +4639,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4923,7 +4655,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -4941,7 +4672,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4959,7 +4689,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -4977,7 +4706,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -4995,7 +4723,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5013,7 +4740,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5031,7 +4757,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5049,7 +4774,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5067,7 +4791,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5085,7 +4808,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5103,7 +4825,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5121,7 +4842,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5139,7 +4859,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5157,7 +4876,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5175,7 +4893,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5193,7 +4910,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5211,7 +4927,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5229,7 +4944,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5247,7 +4961,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5265,7 +4978,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5283,7 +4995,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5301,7 +5012,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5319,7 +5029,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">系列
@@ -5337,7 +5046,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5355,7 +5063,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5370,7 +5077,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5388,7 +5094,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5406,7 +5111,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5424,7 +5128,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5442,7 +5145,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5460,7 +5162,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5478,7 +5179,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5496,7 +5196,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5514,7 +5213,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5528,9 +5226,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5539,7 +5236,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5548,9 +5245,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5558,7 +5254,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5568,9 +5264,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5579,7 +5274,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5588,9 +5283,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5599,7 +5293,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5608,9 +5302,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5619,7 +5312,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5628,9 +5321,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5639,7 +5331,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5648,9 +5340,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5659,7 +5350,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5668,9 +5359,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5679,7 +5369,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5688,9 +5378,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5699,7 +5388,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5708,9 +5397,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5725,7 +5413,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5743,7 +5430,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5761,7 +5447,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5779,7 +5464,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5797,7 +5481,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5815,7 +5498,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5833,7 +5515,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5851,7 +5532,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5865,9 +5545,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5875,7 +5554,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5885,9 +5564,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5895,7 +5573,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5905,9 +5583,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">位
@@ -5916,7 +5593,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5925,9 +5602,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>位</t>
@@ -5938,9 +5614,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机前端网卡驱动的缺陷。若通过主机卸载虚拟机内部处于</t>
@@ -5948,7 +5623,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5957,9 +5632,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态的网卡，虚拟机前端网卡驱动将调用</t>
@@ -5967,7 +5641,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5976,9 +5650,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>同步函数，执行该函数会导致</t>
@@ -5986,7 +5659,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -5995,9 +5668,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内核线程变为</t>
@@ -6005,7 +5677,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6014,9 +5686,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态。</t>
@@ -6027,9 +5698,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>热拔虚拟机</t>
@@ -6037,7 +5707,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6046,9 +5716,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态的网卡，将导致该虚拟机的所有虚拟化特性无法使用，如网卡热插拔、磁盘热插、关机、重启、热迁移等。</t>
@@ -6059,9 +5728,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>参考补丁链接修复该问题。
@@ -6070,7 +5738,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6079,9 +5747,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态的网卡。若用户触发该缺陷，需要强制重启虚拟机恢复。</t>
@@ -6096,9 +5763,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>虚拟机自带的</t>
@@ -6106,7 +5772,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6115,9 +5781,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>组件存在缺陷。该虚拟机默认安装的</t>
@@ -6125,7 +5790,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6134,9 +5799,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>库文件缺省访问</t>
@@ -6144,7 +5808,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6153,9 +5817,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>接口文件，当用户态程序（如</t>
@@ -6163,7 +5826,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6172,9 +5835,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）通过</t>
@@ -6182,7 +5844,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6191,9 +5853,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>注册</t>
@@ -6201,7 +5862,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6210,9 +5871,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>时，将会触发虚拟机内核对</t>
@@ -6220,7 +5880,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6229,9 +5889,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的读写与内核进程文件系统</t>
@@ -6239,7 +5898,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6248,9 +5907,8 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>锁机制冲突的问题，导致程序卡死的现象。</t>
@@ -6261,120 +5919,792 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Linux kernel 4.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">及以上版本的操作系统，如：
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.14.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ixgbevf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发行系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ixgbevf 2.14.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本中已解决该问题</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将虚拟机内部的ixgbevf驱动升级到2.16.1或者更高版本。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.6 32/64位
+CentOS 6.7 32/64位
+CentOS 6.8 32/64位
+Red Hat Enterprise Linux 6.6 32/64位
+Red Hat Enterprise Linux 6.7 32/64位
+Red Hat Enterprise Linux 6.8 32/64位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同环境和配置情况下，存在问题的虚拟机性能比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的虚拟机性能差。例如使用Geekbench测试虚拟机性能发现多线程处理性能下降将近50%。
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CoreOS Stable 1068.2.0 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟机操作系统的内核使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Intel Haswell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“Invalidate Processor-Context Identifier”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特性，导致兼容性问题。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟机启动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/arch/x86/xen/smp.c?id=184748cc50b2dceb8287f9fb657eda48ff8fcfe7</t>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">参考补丁链接修复该问题。
+或参考如下步骤进行规避：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">联系虚拟机用户并获得用户授权后，登录虚拟机。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打开虚拟机命令行操作界面，打开内核启动项配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>menu.lst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，命令如下：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vim /boot/grub/menu.lst
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置项的行尾，添加配置项“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nohz=off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">”并保存修改。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">重启虚拟机，使配置生效。
+</t>
+    </r>
+  </si>
+  <si>
+    <t>虚拟机启动过程中概率失败。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=a49b7e82cab0f9b41f483359be83f44fbb6b4979</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ubuntu server 14.04 LTS 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（内核版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.13.0-24-generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Novell SuSE Linux Enterprise Server 11 SP4 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（内核版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.0.101-63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机启动过程中概率失败。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Novell SuSE Linux Enterprise Server 11 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（内核版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.6.32.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?h=linux-4.6.y&amp;id=5cdd2de0a76d0ac47f107c8a7b32d75d25768dc1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=a5b5dc3ce4df4f05f4d81c7d3c56a7604b242093
+https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=2688fcb79498246d45a0fa5900e415bc97661b6f 
+https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=b7dd0e350e0bd4c0fddcc9b8958342700b00b168</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机的ixgbevf网卡驱动存在缺陷。在虚拟机内部执行修改网卡MTU的操作后，会低概率触发网卡驱动死锁，导致所有获取网络设备信息的功能失效，从而虚拟机网络断连。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">该问题出现后：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">虚拟机网卡停止收发包，网络不通。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与获得网络设备信息相关的命令卡死。如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ip link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ifconfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.3 32/64位（内核版本2.6.32-279）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机执行热插拔网卡操作会概率导致虚拟机panic。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net: Set device operstate at registration time
+https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=8f4cccbbd92f2ad0ddbbc498ef7cee2a1c3defe9
+xen/netfront: teardown the device before unregistering it
+https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=6bc96d047fe32d76ef79f3195c52a542edf7c705
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核缺陷。内核中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">kset_find_obj_hinted() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kobject_put</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在竞争情况，可能出现线程访问已经销毁的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kobject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的情况，内核出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>panic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，导致虚拟机异常而不可用。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核缺陷。在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台的热迁移、休眠和唤醒过程中，前端网卡驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xen-netfront</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会与后端网卡驱动进行交互，进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>disconnect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>reconnect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作；内核的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xen-netfront</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动中在前后端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>disconnect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>reconnect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程中，存在授权表项泄露，导致最后无可用的授权表项，而触发内核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BUG_ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BUG_ON((signed short)ref &lt; 0);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），从而导致虚拟机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6383,49 +6713,28 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，无法使用。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以通过在虚拟机内部禁用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“Invalidate Processor-Context Identifier”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特性，解决虚拟机启动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机执行热迁移、休眠或者唤醒操作会高概率导致虚拟机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -6434,225 +6743,178 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的问题，操作步骤如下：
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核缺陷。对应版本内核的前端网卡驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>netfront</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在时序问题，在热插网卡的过程中，函数调用顺序错误导致网卡状态为未知（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IF_OPER_UNKNOWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），系统误认为可以对网卡设备进行操作；同时热拔网卡时，也存在时序问题，导致网卡设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>netdev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被注销后，系统还认为网卡链路正常，导致插拔网卡过程中访问已经被注销的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>netdev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，从而导致虚拟机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>panic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机内核缺陷。虚拟机启动过程中需要加载内核模块microcode，而内核代码中有重复释放指针操作，导致加载microcode内核模块时，generic_load_microcode函数中的mc指针指向了空地址，从而导致虚拟机crash。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核存在缺陷。存在问题的操作系统漏合一个调度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的补丁，使虚拟机操作系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负载均衡不够及时，最终导致虚拟机性能下降。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本文档主要适用于想了解Linux发行版虚拟机缺陷及缺陷影响的用户。
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>启动虚拟机，立即打开虚拟机的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，在弹出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>grub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选项的界面中按任意键（除回车键外），使其停留在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>grub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">选项界面。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编辑待启动项，在该启动项中添加内核参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>noinvpcid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。例如，系统使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>grub2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，在该启动项的以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“linux”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头的选项行尾添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>noinvpcid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">“linux$suf /coreos/vmlinuz-a mount.usr=PARTUUID=$usr_uuid $linux_cmdline </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>noinvpcid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，完成添加后，保存并启动虚拟机；</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次正式发布。
+增加新发现的缺陷，以及新发现的存在缺陷的操作系统。</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次正式发布。</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6662,58 +6924,52 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF010000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF010000"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -6725,43 +6981,30 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6769,28 +7012,17 @@
       <sz val="11"/>
       <color indexed="48"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6803,8 +7035,73 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF010000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -6814,20 +7111,12 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF010000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF010000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6843,6 +7132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6895,6 +7190,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -6920,126 +7230,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7050,14 +7351,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -7470,13 +7763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="65.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="65.5" style="10" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -7487,10 +7782,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="9" t="s">
@@ -7500,84 +7795,84 @@
     </row>
     <row r="4" spans="1:3" ht="114" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="29"/>
+      <c r="B4" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="26"/>
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="26"/>
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -7587,34 +7882,44 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="19">
+        <v>42598</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="19">
         <v>42479</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>10</v>
+      <c r="C19" s="25" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1"/>
     <row r="20" spans="1:3" ht="24" customHeight="1"/>
     <row r="21" spans="1:3" ht="24" customHeight="1"/>
     <row r="22" spans="1:3" ht="24" customHeight="1"/>
@@ -7649,40 +7954,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="57.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.875" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="53.125" customWidth="1"/>
-    <col min="6" max="6" width="53.75" customWidth="1"/>
+    <col min="6" max="6" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.75" thickBot="1">
@@ -7690,19 +7995,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81.75" thickBot="1">
@@ -7710,39 +8015,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="53.25" thickBot="1">
+    <row r="4" spans="1:6" ht="27" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="65.25" thickBot="1">
@@ -7750,19 +8055,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" thickBot="1">
@@ -7770,19 +8075,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="230.25" thickBot="1">
@@ -7790,19 +8095,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="338.25" thickBot="1">
@@ -7810,19 +8115,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="132" customHeight="1" thickBot="1">
@@ -7830,39 +8135,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="67.5" thickBot="1">
+    <row r="10" spans="1:6" ht="41.25" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="122.25" thickBot="1">
@@ -7870,39 +8175,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="41.25" thickBot="1">
+    <row r="12" spans="1:6" ht="27.75" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="81.75" thickBot="1">
@@ -7910,19 +8215,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="117.75" thickBot="1">
@@ -7930,59 +8235,59 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="15" spans="1:6" ht="81.75" thickBot="1">
+    <row r="15" spans="1:6" ht="41.25" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="135.75" thickBot="1">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="108.75" thickBot="1">
@@ -7990,19 +8295,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5" thickBot="1">
@@ -8010,259 +8315,359 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="95.25" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>129</v>
+      <c r="B20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27.75" thickBot="1">
-      <c r="A21" s="2">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="F21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="22" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="27.75" thickBot="1">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D22" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A23" s="2">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="243.75" thickBot="1">
-      <c r="A24" s="2">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="E25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="80.25" thickBot="1">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="C26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>117</v>
+      <c r="F26" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="68.25" thickBot="1">
-      <c r="A27" s="2">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="22" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D28" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="D29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="79.5" thickBot="1">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>148</v>
       </c>
+      <c r="C30" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>138</v>
+    <row r="31" spans="1:6" ht="171" customHeight="1" thickBot="1">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="68.25" thickBot="1">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>42</v>
+    <row r="32" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="108.75" thickBot="1">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>154</v>
+    <row r="33" spans="1:6" ht="81.75" thickBot="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="154.5" customHeight="1" thickBot="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8277,8 +8682,10 @@
     <hyperlink ref="E22" r:id="rId7"/>
     <hyperlink ref="E27" r:id="rId8"/>
     <hyperlink ref="E28" r:id="rId9"/>
+    <hyperlink ref="E32" r:id="rId10"/>
+    <hyperlink ref="E34" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
 </worksheet>
 </file>
--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="192">
   <si>
     <t>官方补丁链接</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4205,11 +4205,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=274b045509175db0405c784be85e8cce116e6f7d
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -5540,78 +5535,6 @@
   </si>
   <si>
     <r>
-      <t>Debian GNU/Linux 8.2.0 32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Fedora 23 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Oracle Linux  7.2 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ubuntu server 14.04.3 32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10.5"/>
         <color indexed="8"/>
@@ -6008,14 +5931,6 @@
   <si>
     <t>将虚拟机内部的ixgbevf驱动升级到2.16.1或者更高版本。</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CentOS 6.6 32/64位
-CentOS 6.7 32/64位
-CentOS 6.8 32/64位
-Red Hat Enterprise Linux 6.6 32/64位
-Red Hat Enterprise Linux 6.7 32/64位
-Red Hat Enterprise Linux 6.8 32/64位</t>
   </si>
   <si>
     <r>
@@ -6211,36 +6126,6 @@
   </si>
   <si>
     <r>
-      <t>Ubuntu server 14.04 LTS 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位（内核版本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.13.0-24-generic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Novell SuSE Linux Enterprise Server 11 SP4 64</t>
     </r>
     <r>
@@ -6405,10 +6290,6 @@
       </rPr>
       <t>等。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CentOS 6.3 32/64位（内核版本2.6.32-279）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6915,6 +6796,506 @@
   <si>
     <t>第一次正式发布。</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CentOS 6.8 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.6 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.8 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 6.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ubuntu server 14.04 LTS 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（内核版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.13.0-24-generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS 6.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（内核版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.6.32-279</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=7098296a362a96051fa120abf48f0095818b99cd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟机内核自身缺陷。因虚拟机内核的串口驱动只在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>flush_to_ldisc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数的入口对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构中的缓存进行非空检查，若不为空，则直接使用，使用完后，再将缓存释放并置空。而其后续的流程中不再次检查对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构中的缓存进行非空判断。当虚拟机内部有多个程序并发访问该串口设备时，第二次重入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>flush_to_ldisc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数因未对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构中的缓存进行非空检查，直接访问了空指针，导致虚拟机黑屏或卡死。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机在运行过程中，因其串口驱动存在缺陷，低概率发生黑屏或卡死</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ubuntu server 16.04 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机启动过程中概率失败。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=707e59ba494372a90d245f18b0c78982caa88e48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考补丁链接修复该问题。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机内核缺陷。 在Xen虚拟化平台上，虚拟机使用qspinlocks时，一个CPU可以尝试kick另一个正在自旋的CPU（因它尚未初始化它的kicker interrupt）， 而问题虚拟机在启动过程中， 可能出现CPU去kick一个尚未完成分配中断的CPU的情况，从而导致虚拟机在启动crash，VNC界面呈现为黑屏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Novell SuSE Linux Enterprise Server 12 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+openSUSE 13.2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+openSUSE 42.1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Red Hat Enterprise Linux 7.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Debian GNU/Linux 8.2.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Fedora 23 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Oracle Linux  7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ubuntu server 14.04.3 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=274b045509175db0405c784be85e8cce116e6f7d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6924,7 +7305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7072,6 +7453,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -7116,7 +7551,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7132,12 +7567,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7235,7 +7664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7243,29 +7672,29 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7274,13 +7703,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -7295,7 +7724,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7304,23 +7733,29 @@
     <xf numFmtId="176" fontId="17" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7764,7 +8199,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7782,10 +8217,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="9" t="s">
@@ -7795,17 +8230,17 @@
     </row>
     <row r="4" spans="1:3" ht="114" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="30"/>
+      <c r="B4" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13"/>
@@ -7814,55 +8249,55 @@
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="15"/>
@@ -7882,10 +8317,10 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="17" t="s">
@@ -7900,24 +8335,24 @@
     </row>
     <row r="18" spans="1:3" ht="48" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B18" s="19">
         <v>42598</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>180</v>
+      <c r="C18" s="23" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B19" s="19">
         <v>42479</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>182</v>
+      <c r="C19" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1"/>
@@ -7954,10 +8389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8034,7 +8469,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8095,7 +8530,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>78</v>
@@ -8115,7 +8550,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
@@ -8175,7 +8610,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -8235,13 +8670,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -8275,7 +8710,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>69</v>
@@ -8295,7 +8730,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>72</v>
@@ -8490,24 +8925,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="68.25" thickBot="1">
+    <row r="27" spans="1:6" ht="65.25" thickBot="1">
       <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="E27" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="41.25" thickBot="1">
@@ -8515,19 +8950,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="41.25" thickBot="1">
@@ -8535,19 +8970,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="E29" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="F29" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="79.5" thickBot="1">
@@ -8555,19 +8990,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="171" customHeight="1" thickBot="1">
@@ -8575,19 +9010,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
@@ -8595,19 +9030,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81.75" thickBot="1">
@@ -8615,16 +9050,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>40</v>
@@ -8635,19 +9070,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="154.5" customHeight="1" thickBot="1">
@@ -8655,19 +9090,59 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>171</v>
+        <v>165</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="54.75" thickBot="1">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -8684,8 +9159,9 @@
     <hyperlink ref="E28" r:id="rId9"/>
     <hyperlink ref="E32" r:id="rId10"/>
     <hyperlink ref="E34" r:id="rId11"/>
+    <hyperlink ref="E37" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
 </worksheet>
 </file>
--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -24,79 +24,79 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="192">
   <si>
     <t>官方补丁链接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>概述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>读者对象</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结构</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改记录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改记录累积了每次文档更新的说明。最新版本的文档包含以前所有文档版本的更新内容。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>文档版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>更新说明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建议处理方法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给出修复缺陷的官方补丁链接。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给出如何修复缺陷的建议方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>存在该缺陷的操作系统。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明造成缺陷的原因。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>缺陷描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>缺陷影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>操作系统类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说明缺陷可能引起的现象和造成的影响。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -108,11 +108,11 @@
       </rPr>
       <t>序号</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>官方补丁链接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -124,7 +124,7 @@
       </rPr>
       <t>建议处理方法</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -172,15 +172,15 @@
       </rPr>
       <t>平台上运行存在缺陷。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://rhn.redhat.com/errata/RHBA-2013-1499.html</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在系统安装完成后，通过文本界面进入虚拟机，参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -354,17 +354,17 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机在热迁移、快照或休眠时概率性失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://kernel.opensuse.org/cgit/kernel/commit/?id=8c603fc5c6608bac3e3df537f8f4a70a24e4edd0
 https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=0af212ba8f123c2eba151af7726c34a50b127962
 https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=cbb330045e5df8f665ac60227ff898421fc8fb92</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -394,7 +394,7 @@
       </rPr>
       <t>或更高版本）解决问题。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,7 +424,7 @@
       </rPr>
       <t>发行系统</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -472,11 +472,11 @@
       </rPr>
       <t>磁盘的工作，导致虚拟机恢复流程被打断，而此时磁盘没有恢复，目的端虚拟机就出现卡死现象。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>热迁移到目的端后虚拟机卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -488,11 +488,11 @@
       </rPr>
       <t>官方还没有补丁</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂无修复方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -558,7 +558,7 @@
       </rPr>
       <t>内核线程得不到调度。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -588,7 +588,7 @@
       </rPr>
       <t>分钟才能恢复，卡住时无法使用虚拟机，同样存在同样问题的特性还包括快照恢复、休眠唤醒。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -600,7 +600,7 @@
       </rPr>
       <t>官方新版本已经解决</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -666,7 +666,7 @@
       </rPr>
       <t>中得到修复。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -714,15 +714,15 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://lists.xenproject.org/archives/html/xen-devel/2015-03/msg03327.html</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -752,11 +752,11 @@
       </rPr>
       <t>配置的虚拟机使用快照恢复会卡死。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=6a1f513776b78c994045287073e55bae44ed9f8c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -822,11 +822,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=c275a57f5ec3056f732843b11659d892235faff7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -856,7 +856,7 @@
       </rPr>
       <t>内核的虚拟机</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -904,11 +904,11 @@
       </rPr>
       <t>邻居缓存表，导致虚拟机网络不通。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跨三层交换机热迁移后网络不通。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -923,7 +923,7 @@
       </rPr>
       <t>系列</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1097,7 +1097,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1127,7 +1127,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1148,7 +1148,7 @@
       </rPr>
       <t>http://packages.ubuntu.com/trusty/udev</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1235,7 +1235,7 @@
       </rPr>
       <t>版本及以上版本。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1364,11 +1364,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机热迁移业务中断时间长。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1383,7 +1383,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1467,7 +1467,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1497,11 +1497,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://sourceware.org/git/gitweb.cgi?p=systemtap.git;a=commit;h=f2b610b6295628ae1fef744421c293883f1e4298</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1630,7 +1630,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1678,7 +1678,7 @@
       </rPr>
       <t>进程卡死。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1723,7 +1723,7 @@
       <t xml:space="preserve">
 https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=2fb3683e7b164ee2b324039f7c9d90fe5b1a259b</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1825,7 +1825,7 @@
       </rPr>
       <t>共存，而它们实际上指向同一个设备。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1882,7 +1882,7 @@
       </rPr>
       <t>xen_platform_pci.dev_unplug=all</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1966,11 +1966,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Fedora 22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2162,15 +2162,15 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机启动过程中概率失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=dd9d3843755da95f63dd3a376f62b3e45c011210</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2200,7 +2200,7 @@
       </rPr>
       <t>前端网卡驱动存在缺陷，在删除授权引用时会引起资源泄漏，导致对虚拟机反复下发热插拔网卡失败。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2230,11 +2230,11 @@
       </rPr>
       <t>次后，虚拟机无法再次执行网卡热插拔或磁盘热插。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/drivers/net/xen-netfront.c?id=cefe0078eea52af17411eb1248946a94afb84ca5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2318,15 +2318,15 @@
       </rPr>
       <t>无法运行。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无法通过虚拟化主机获取虚拟机的扩展信息。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>操作系统类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2341,7 +2341,7 @@
       </rPr>
       <t>系列</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2366,11 +2366,11 @@
       </rPr>
       <t>CentOS/Oracle Linux/Red Hat Enterprise Linux 6.1~6.4</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机的图形化界面无法使用。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2490,7 +2490,7 @@
       </rPr>
       <t>均无法处理中断，导致虚拟机处于卡住状态。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2520,7 +2520,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2550,11 +2550,11 @@
       </rPr>
       <t>或更高版本）解决问题。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题或升级到指定内核版本（2.6.32-504.12.2或更高版本）解决问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">方法一、在完成虚拟机热迁移后，从虚拟机内部广播ARP/NDP报文。
@@ -2564,7 +2564,7 @@
 说明： ${dev}请使用虚拟机使用的网卡设备名替代，如eth0。
 2.重新加载/etc/sysctl.conf配置，使热迁移后虚拟机发送ARP功能即时生效，参考命令如下：
 sysctl -p /etc/sysctl.conf </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2660,20 +2660,20 @@
       </rPr>
       <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=08e34eb14fe4cfd934b5c169a7682a969457c4ea</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>缺陷序号，按照发现缺陷的先后顺序排列。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>本文档给出Linux发行版的缺陷列表。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CentOS 6.5 64位
 Red Hat Enterprise Linux 6.6 64位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2721,7 +2721,7 @@
       </rPr>
       <t>秒，设备恢复过程中虚拟机无法响应网络传输。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2769,7 +2769,7 @@
       </rPr>
       <t>秒。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2781,16 +2781,16 @@
       </rPr>
       <t>官方还没有补丁</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂无修复方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Novell SuSE Linux Enterprise Server 12 64位
 Novell SuSE Linux Enterprise Server 12 SP1 64位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2897,7 +2897,7 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2931,11 +2931,11 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>此缺陷会导致用户虚拟机的网络异常。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2961,40 +2961,40 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CentOS 5.11 32/64位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机内核缺陷,导致虚拟机无法安装uvp-monitor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无法通过虚拟化主机获取虚拟机的扩展信息。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂无修复方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置网卡时，ifcfg-ethX配置文件中缺少” HWADDR=xx:xx:xx:xx”一项，系统在重启后，网口无法根据ifcfg-ethX配置文件中的MAC地址来进行名称关联，导致虚拟机网卡名变成_tmpx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 虚拟机配置网卡后，重启虚拟机网卡名变成_tmpx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">https://bugzilla.redhat.com/show_bug.cgi?id=224662 
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3028,7 +3028,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3043,20 +3043,20 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机反复热迁移，概率发生迁移到目的端后恢复卡住的问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=72978b2fe2f2cdf9f319c6c6dcdbe92b38de2be2
 http://git.kernel.org/cgit/linux/kernel/git/tip/tip.git/commit/?id=c4288334818c81c946acb23d2319881f58c3d497</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题可降低热迁移卡死的概率。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3071,31 +3071,31 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机休眠、内存快照和热迁移失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>官方还没有补丁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机执行休眠失败、热迁移失败或执行内存快照后无法外部重启虚拟机,无法再进行热迁移，休眠和内存快照。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂无修复方法。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CentOS 6.3 64位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>官方还没有补丁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3143,7 +3143,7 @@
       </rPr>
       <t>项即可解决。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3282,7 +3282,7 @@
       </rPr>
       <t>左右。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3356,19 +3356,19 @@
       </rPr>
       <t>重启虚拟机生效。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机内核自身缺陷，在反复热迁移时有概率发生虚拟机卡住的情况。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机暂停失败时，虚拟磁盘申请的授权引用不会释放，而虚拟磁盘存在缺陷，导致其无法处理暂停失败的场景。若在该失败场景下，恢复磁盘会导致申请授权引用失败，虚拟机卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使用虚拟机快照功能后，虚拟机卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3524,7 +3524,7 @@
       </rPr>
       <t>，导致暂停过程超时失败。该缺陷同样存在于虚拟机的内存快照和热迁移功能中。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3626,7 +3626,7 @@
       </rPr>
       <t>操作均无法响应，例如在用户界面下发重启虚拟机失败。该缺陷同样存在于热迁移和内存快照功能中。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4064,7 +4064,7 @@
       </rPr>
       <t>重启虚拟机。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4202,7 +4202,7 @@
       </rPr>
       <t>可能相同。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4255,37 +4255,37 @@
       </rPr>
       <t>一个设备存在两个可访问的对象时，导致磁盘扩展信息错误</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Novell SuSE Linux Enterprise Server 11 SP3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CoreOS 1010.5.0
 CoreOS 1068.2.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户态程序访问xenbus会卡死，例如运行uvp-monitor进程卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 http://xenbits.xen.org/gitweb/?p=xen.git;a=commitdiff;h=9c89dc95201ffed5fead17b35754bf9440fdbdc0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机休眠、唤醒、热迁移失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/next/linux-next.git/commit/drivers/block/xen-blkfront.c?id=efd1535270c1deb0487527bf0c3c827301a69c93</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4374,7 +4374,7 @@
       </rPr>
       <t>发行系统</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4640,7 +4640,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5062,7 +5062,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5212,7 +5212,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5398,7 +5398,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5531,7 +5531,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5615,7 +5615,7 @@
       </rPr>
       <t>状态。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5645,7 +5645,7 @@
       </rPr>
       <t>状态的网卡，将导致该虚拟机的所有虚拟化特性无法使用，如网卡热插拔、磁盘热插、关机、重启、热迁移等。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5676,11 +5676,11 @@
       </rPr>
       <t>状态的网卡。若用户触发该缺陷，需要强制重启虚拟机恢复。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机内核缺陷，在前后端虚拟磁盘驱动状态切换时，虚拟磁盘驱动存在处理xenwatch的时序问题，当虚拟机热迁移或休眠、唤醒时，虚拟磁盘驱动多处理了一次XenbusStateConnected状态，导致虚拟机卡死。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5836,7 +5836,7 @@
       </rPr>
       <t>锁机制冲突的问题，导致程序卡死的现象。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5911,7 +5911,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5926,11 +5926,11 @@
       </rPr>
       <t>版本中已解决该问题</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>将虚拟机内部的ixgbevf驱动升级到2.16.1或者更高版本。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6114,15 +6114,15 @@
   </si>
   <si>
     <t>虚拟机启动过程中概率失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=a49b7e82cab0f9b41f483359be83f44fbb6b4979</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,15 +6152,15 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机启动过程中概率失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6190,21 +6190,21 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?h=linux-4.6.y&amp;id=5cdd2de0a76d0ac47f107c8a7b32d75d25768dc1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=a5b5dc3ce4df4f05f4d81c7d3c56a7604b242093
 https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=2688fcb79498246d45a0fa5900e415bc97661b6f 
 https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=b7dd0e350e0bd4c0fddcc9b8958342700b00b168</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机的ixgbevf网卡驱动存在缺陷。在虚拟机内部执行修改网卡MTU的操作后，会低概率触发网卡驱动死锁，导致所有获取网络设备信息的功能失效，从而虚拟机网络断连。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6290,11 +6290,11 @@
       </rPr>
       <t>等。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机执行热插拔网卡操作会概率导致虚拟机panic。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">net: Set device operstate at registration time
@@ -6302,11 +6302,11 @@
 xen/netfront: teardown the device before unregistering it
 https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=6bc96d047fe32d76ef79f3195c52a542edf7c705
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6408,7 +6408,7 @@
       </rPr>
       <t>，导致虚拟机异常而不可用。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6600,7 +6600,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6630,7 +6630,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6721,11 +6721,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机内核缺陷。虚拟机启动过程中需要加载内核模块microcode，而内核代码中有重复释放指针操作，导致加载microcode内核模块时，generic_load_microcode函数中的mc指针指向了空地址，从而导致虚拟机crash。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6773,29 +6773,29 @@
       </rPr>
       <t>负载均衡不够及时，最终导致虚拟机性能下降。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">本文档主要适用于想了解Linux发行版虚拟机缺陷及缺陷影响的用户。
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>02</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>第二次正式发布。
 增加新发现的缺陷，以及新发现的存在缺陷的操作系统。</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>第一次正式发布。</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6905,7 +6905,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6973,7 +6973,7 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7006,11 +7006,11 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=7098296a362a96051fa120abf48f0095818b99cd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7112,11 +7112,11 @@
       </rPr>
       <t>结构中的缓存进行非空检查，直接访问了空指针，导致虚拟机黑屏或卡死。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机在运行过程中，因其串口驱动存在缺陷，低概率发生黑屏或卡死</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7131,23 +7131,99 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机启动过程中概率失败。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=707e59ba494372a90d245f18b0c78982caa88e48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参考补丁链接修复该问题。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机内核缺陷。 在Xen虚拟化平台上，虚拟机使用qspinlocks时，一个CPU可以尝试kick另一个正在自旋的CPU（因它尚未初始化它的kicker interrupt）， 而问题虚拟机在启动过程中， 可能出现CPU去kick一个尚未完成分配中断的CPU的情况，从而导致虚拟机在启动crash，VNC界面呈现为黑屏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Debian GNU/Linux 8.2.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Fedora 23 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Oracle Linux  7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ubuntu server 14.04.3 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=274b045509175db0405c784be85e8cce116e6f7d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7217,59 +7293,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Debian GNU/Linux 8.2.0 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Fedora 23 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Oracle Linux  7.2 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">位
 </t>
     </r>
@@ -7280,7 +7303,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Ubuntu server 14.04.3 32</t>
+      <t>Red Hat Enterprise Linux 7.2 64</t>
     </r>
     <r>
       <rPr>
@@ -7291,11 +7314,7 @@
       </rPr>
       <t>位</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/?id=274b045509175db0405c784be85e8cce116e6f7d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7305,7 +7324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7326,25 +7345,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -7420,89 +7421,11 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -7664,10 +7587,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -7679,103 +7602,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8198,9 +8121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8377,7 +8298,7 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.1811023622047245" bottom="1.1811023622047245" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -8392,7 +8313,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8930,7 +8851,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>141</v>
@@ -8939,7 +8860,7 @@
         <v>142</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>143</v>
@@ -9105,12 +9026,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="54.75" thickBot="1">
+    <row r="36" spans="1:6" ht="68.25" thickBot="1">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>182</v>
@@ -9146,7 +9067,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2" display="http://kernel.opensuse.org/cgit/kernel/commit/?id=8c603fc5c6608bac3e3df537f8f4a70a24e4edd0"/>

--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -7227,7 +7227,26 @@
   </si>
   <si>
     <r>
-      <t>Novell SuSE Linux Enterprise Server 12 SP1 32/64</t>
+      <t>CentOS 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Novell SuSE Linux Enterprise Server 12 SP1 32/64</t>
     </r>
     <r>
       <rPr>
@@ -8313,7 +8332,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9026,7 +9045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="68.25" thickBot="1">
+    <row r="36" spans="1:6" ht="81.75" thickBot="1">
       <c r="A36" s="20">
         <v>35</v>
       </c>

--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -37,6 +37,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本文档给出</t>
     </r>
@@ -54,6 +55,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发行版的缺陷列表。</t>
     </r>
@@ -67,6 +69,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本文档主要适用于想了解</t>
     </r>
@@ -84,6 +87,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发行版虚拟机缺陷及缺陷影响的用户。
 </t>
@@ -152,6 +156,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第四次正式发布。
 新增缺陷：
@@ -171,6 +176,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">尝试</t>
     </r>
@@ -188,6 +194,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未初始化的自旋</t>
     </r>
@@ -205,6 +212,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，导致虚拟机启动过程中概率失败”缺陷（对应序号</t>
     </r>
@@ -222,6 +230,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）。
 •新增“通过主机热拔虚拟机正被使用的磁盘将会超时失败”缺陷（对应序号</t>
@@ -240,6 +249,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）。
 •新增“内核修改</t>
@@ -258,6 +268,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模块引入问题，导致运行在</t>
     </r>
@@ -275,6 +286,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平台的虚拟机的用户态程序无法访问</t>
     </r>
@@ -292,6 +304,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，这也导致</t>
     </r>
@@ -309,6 +322,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法正常运行”缺陷（对应序号</t>
     </r>
@@ -326,6 +340,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）。
 补充已知缺陷中，存在问题的操作系统类型：
@@ -345,6 +360,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -362,6 +378,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -379,6 +396,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -396,6 +414,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -413,6 +432,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -430,6 +450,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -447,6 +468,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -464,6 +486,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -481,6 +504,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -498,6 +522,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -515,6 +540,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）中添加了新发现的受影响操作系统。</t>
     </r>
@@ -528,6 +554,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第三次正式发布。
 新增序号</t>
@@ -546,6 +573,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -563,6 +591,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对应缺陷行，序号</t>
     </r>
@@ -580,6 +609,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行新增操作系统
 </t>
@@ -598,6 +628,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -616,6 +647,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -650,6 +682,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -670,6 +703,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -681,6 +715,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系统缺省的</t>
     </r>
@@ -700,6 +735,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组件版本在</t>
     </r>
@@ -719,6 +755,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平台上运行存在缺陷。</t>
     </r>
@@ -749,6 +786,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系列</t>
     </r>
@@ -760,6 +798,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">存在问题的虚拟机采用</t>
     </r>
@@ -779,6 +818,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本为基线的</t>
     </r>
@@ -798,6 +838,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内核，该版本内核的</t>
     </r>
@@ -817,6 +858,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">子系统在</t>
     </r>
@@ -836,6 +878,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">过程中存在概率性失败问题。当</t>
     </r>
@@ -855,6 +898,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">被</t>
     </r>
@@ -874,6 +918,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">失败，则终止系统</t>
     </r>
@@ -893,6 +938,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">流程，虚拟机</t>
     </r>
@@ -912,6 +958,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">失败，导致虚拟机热迁移失败 。</t>
     </r>
@@ -931,6 +978,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">参考补丁链接修复该问题或升级到指定内核版本（</t>
     </r>
@@ -950,6 +998,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或更高版本）解决问题。</t>
     </r>
@@ -961,6 +1010,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有</t>
     </r>
@@ -980,6 +1030,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发行系统</t>
     </r>
@@ -991,6 +1042,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在虚拟机热迁移到目的端后，</t>
     </r>
@@ -1010,6 +1062,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">被虚拟机内核调度出去完成需要访问磁盘或者有内存</t>
     </r>
@@ -1029,6 +1082,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">磁盘的工作，导致虚拟机恢复流程被打断，而此时磁盘没有恢复，目的端虚拟机就出现卡死现象。</t>
     </r>
@@ -1059,6 +1113,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系列
 </t>
@@ -1081,6 +1136,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机的内核</t>
     </r>
@@ -1100,6 +1156,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">调度器存在缺陷：内核调度策略中，</t>
     </r>
@@ -1119,6 +1176,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的优先级不够高，被其他内核进程阻塞，导致</t>
     </r>
@@ -1138,6 +1196,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内核线程得不到调度。</t>
     </r>
@@ -1149,6 +1208,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机热迁移后卡住时间超过</t>
     </r>
@@ -1168,6 +1228,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分钟才能恢复，卡住时无法使用虚拟机，同样存在同样问题的特性还包括快照恢复、休眠唤醒。</t>
     </r>
@@ -1182,6 +1243,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">升级到指定内核版本（</t>
     </r>
@@ -1201,6 +1263,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或更高版本）解决问题。</t>
     </r>
@@ -1212,6 +1275,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机的内核实现存在缺陷，导致只支持</t>
     </r>
@@ -1231,6 +1295,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个</t>
     </r>
@@ -1250,6 +1315,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。该缺陷在</t>
     </r>
@@ -1269,6 +1335,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中得到修复。</t>
     </r>
@@ -1280,6 +1347,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机不支持超过</t>
     </r>
@@ -1299,6 +1367,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个</t>
     </r>
@@ -1318,6 +1387,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -1332,6 +1402,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">参考补丁链接修复该问题或升级到指定内核版本（</t>
     </r>
@@ -1351,6 +1422,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或更高版本）解决问题。</t>
     </r>
@@ -1370,6 +1442,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1388,6 +1461,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1406,6 +1480,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1424,6 +1499,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1442,6 +1518,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1460,6 +1537,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1478,6 +1556,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1496,6 +1575,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1514,6 +1594,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1532,6 +1613,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1552,6 +1634,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系列
 </t>
@@ -1572,6 +1655,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1592,6 +1676,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1612,6 +1697,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1632,6 +1718,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1652,6 +1739,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1672,6 +1760,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1692,6 +1781,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1712,6 +1802,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1732,6 +1823,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1755,6 +1847,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系列</t>
     </r>
@@ -1766,6 +1859,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机在使用快照恢复功能时，其内核会重新设置</t>
     </r>
@@ -1785,6 +1879,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的内存地址，但新设置没有通知</t>
     </r>
@@ -1804,6 +1899,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，导致除</t>
     </r>
@@ -1823,6 +1919,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">之外的其他</t>
     </r>
@@ -1842,6 +1939,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址异常。所以虚拟机除</t>
     </r>
@@ -1861,6 +1959,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">外的其他</t>
     </r>
@@ -1880,6 +1979,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">均无法处理中断，导致虚拟机处于卡住状态。</t>
     </r>
@@ -1891,6 +1991,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">多</t>
     </r>
@@ -1910,6 +2011,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置的虚拟机使用快照恢复会卡死。</t>
     </r>
@@ -1935,6 +2037,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1946,13 +2049,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CentOS 7.0/7.2 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">CentOS 7.0/7.1/7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1971,6 +2075,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -1982,13 +2087,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">EulerOS 2.1.RC5 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 12 SP1 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -2000,13 +2106,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Fedora 23 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">Oracle Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -2018,13 +2125,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 12 SP1 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">Oracle Linux 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -2036,13 +2144,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Oracle Linux 6.4 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">Oracle Linux 7.0 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -2054,13 +2163,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Oracle Linux 6.7 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">Oracle Linux 7.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -2072,121 +2182,32 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Oracle Linux 7.0 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Oracle Linux 7.2 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Red Hat Enterprise Linux 7.2 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Red Hat Enterprise Linux 7.0/7.1 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ubuntu 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">系列
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ubuntu server 14.04.3 32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ubuntu server 14.04.4 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
+      <t xml:space="preserve">Red Hat Enterprise Linux 7.0/7.1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -2198,6 +2219,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核在计算最大内存时，把</t>
     </r>
@@ -2217,6 +2239,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">包含在内，导致计算的数值大于实际虚拟机内存，触发虚拟机内存</t>
     </r>
@@ -2236,6 +2259,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，从而虚拟机实际内存值小于分配值且概率</t>
     </r>
@@ -2255,6 +2279,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2266,6 +2291,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机实际内存值小于主机分配的内存值且概率性</t>
     </r>
@@ -2285,6 +2311,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2299,6 +2326,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有</t>
     </r>
@@ -2318,6 +2346,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内核的虚拟机</t>
     </r>
@@ -2329,6 +2358,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机跨三层交换机热迁移到对端后，目的端交换机无法感知虚拟机迁移完成，无法及时更新交换机的</t>
     </r>
@@ -2348,6 +2378,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表</t>
     </r>
@@ -2367,6 +2398,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">邻居缓存表，导致虚拟机网络不通。</t>
     </r>
@@ -2381,6 +2413,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">增加了</t>
     </r>
@@ -2400,6 +2433,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端网卡链接可以发送</t>
     </r>
@@ -2419,6 +2453,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的功能：
 </t>
@@ -2440,6 +2475,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">优化了</t>
     </r>
@@ -2459,6 +2495,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发送的时序
 </t>
@@ -2480,6 +2517,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">方法一、在完成虚拟机热迁移后，从虚拟机内部广播</t>
     </r>
@@ -2497,6 +2535,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报文。
 方法二、建议打开虚拟机发送</t>
@@ -2515,6 +2554,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">功能的系统调用接口，参考方法如下：
 </t>
@@ -2533,6 +2573,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">编辑</t>
     </r>
@@ -2550,6 +2591,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件，在文件中添加如下内容：
 </t>
@@ -2569,6 +2611,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">说明： </t>
     </r>
@@ -2586,6 +2629,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请使用虚拟机使用的网卡设备名替代，如</t>
     </r>
@@ -2603,6 +2647,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。
 </t>
@@ -2621,6 +2666,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">重新加载</t>
     </r>
@@ -2638,6 +2684,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置，使热迁移后虚拟机发送</t>
     </r>
@@ -2655,6 +2702,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">功能即时生效，参考命令如下：
 </t>
@@ -2686,6 +2734,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系列</t>
     </r>
@@ -2697,6 +2746,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机的</t>
     </r>
@@ -2716,6 +2766,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">存在缺陷。</t>
     </r>
@@ -2735,6 +2786,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端网卡在注册时未获取网卡的</t>
     </r>
@@ -2754,6 +2806,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址信息，因该网卡信息不全的</t>
     </r>
@@ -2773,6 +2826,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法正确与其记录的持久化规则匹配，导致网卡和原规则已记录网卡的设备名冲突，</t>
     </r>
@@ -2792,6 +2846,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">将在新增网卡设备名前面添加</t>
     </r>
@@ -2811,6 +2866,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的标签，由</t>
     </r>
@@ -2830,6 +2886,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（为网卡名称，如</t>
     </r>
@@ -2849,6 +2906,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）改为</t>
     </r>
@@ -2868,6 +2926,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2879,6 +2938,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机重启后网卡设备名变为</t>
     </r>
@@ -2898,6 +2958,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2909,6 +2970,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">勘误版本获取链接：</t>
     </r>
@@ -2940,6 +3002,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">官网提供的</t>
     </r>
@@ -2959,6 +3022,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本的</t>
     </r>
@@ -2978,6 +3042,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">已解决该问题，建议升级</t>
     </r>
@@ -2997,6 +3062,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本到</t>
     </r>
@@ -3016,6 +3082,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本及以上版本。</t>
     </r>
@@ -3035,6 +3102,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3053,6 +3121,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3071,6 +3140,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3089,6 +3159,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3107,6 +3178,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3125,6 +3197,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3143,6 +3216,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3161,6 +3235,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3179,6 +3254,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -3190,6 +3266,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核存在缺陷。在虚拟机热迁移过程中，其内核会对</t>
     </r>
@@ -3209,6 +3286,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前后端设备、</t>
     </r>
@@ -3228,6 +3306,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟设备执行</t>
     </r>
@@ -3247,6 +3326,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -3266,6 +3346,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">操作，其中操作</t>
     </r>
@@ -3285,6 +3366,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟设备需要耗时</t>
     </r>
@@ -3304,6 +3386,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒左右，这段时间虚拟机无法响应外部请求。</t>
     </r>
@@ -3328,6 +3411,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -3339,6 +3423,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机采用的</t>
     </r>
@@ -3358,6 +3443,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本为</t>
     </r>
@@ -3377,6 +3463,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，该版本存在缺陷，由它生成的</t>
     </r>
@@ -3396,6 +3483,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模块存在定时器删除和使用的竞争问题，导致系统</t>
     </r>
@@ -3415,6 +3503,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -3426,6 +3515,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机启动时概率</t>
     </r>
@@ -3445,6 +3535,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -3469,6 +3560,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -3489,6 +3581,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -3500,6 +3593,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核存在缺陷。用户态程序通过</t>
     </r>
@@ -3519,6 +3613,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设置一个</t>
     </r>
@@ -3538,6 +3633,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">读取时，</t>
     </r>
@@ -3557,6 +3653,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内核进程文件系统（</t>
     </r>
@@ -3576,6 +3673,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）新增的</t>
     </r>
@@ -3595,6 +3693,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会使该程序死锁在“</t>
     </r>
@@ -3614,6 +3713,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">读取锁”上。</t>
     </r>
@@ -3625,6 +3725,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户态程序访问</t>
     </r>
@@ -3644,6 +3745,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会卡死，例如运行</t>
     </r>
@@ -3663,6 +3765,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进程卡死。</t>
     </r>
@@ -3685,6 +3788,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机在使用默认配置启动时，虚拟机内核驱动能够同时探测到</t>
     </r>
@@ -3704,6 +3808,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟的设备及</t>
     </r>
@@ -3723,6 +3828,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">后端设备并使其生效，例如为虚拟机配置一个磁盘（</t>
     </r>
@@ -3742,6 +3848,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">盘），但到虚拟机内部可以查看到</t>
     </r>
@@ -3761,6 +3868,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -3780,6 +3888,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共存，而它们实际上指向同一个设备。</t>
     </r>
@@ -3801,6 +3910,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当应用程序通过模拟的设备访问文件系统或者网络时，性能将会降低。
 </t>
@@ -3821,6 +3931,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个设备存在两个可访问的对象时，可能对虚拟机数据一致性造成影响。
 </t>
@@ -3841,6 +3952,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个设备存在两个可访问的对象时，导致磁盘扩展信息错误
 </t>
@@ -3861,6 +3973,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机休眠、内存快照和热迁移失败</t>
     </r>
@@ -3872,6 +3985,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">通过配置</t>
     </r>
@@ -3891,6 +4005,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的模块参数</t>
     </r>
@@ -3910,6 +4025,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">实现屏蔽模拟设备的功能，完整参数为</t>
     </r>
@@ -3931,6 +4047,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加上述的内核参数，则需要修改</t>
     </r>
@@ -3950,6 +4067,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -3969,6 +4087,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的挂载设备名。如将“</t>
     </r>
@@ -3988,6 +4107,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">修改为“</t>
     </r>
@@ -4007,6 +4127,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -4021,6 +4142,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在主机</t>
     </r>
@@ -4040,6 +4162,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">压力较大的场景下启动虚拟机，可能造成虚拟机的</t>
     </r>
@@ -4059,6 +4182,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -4078,6 +4202,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">过程中，在设置为</t>
     </r>
@@ -4097,6 +4222,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态和</t>
     </r>
@@ -4116,6 +4242,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态之间被调度出去，而</t>
     </r>
@@ -4135,6 +4262,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此时为该</t>
     </r>
@@ -4154,6 +4282,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">迁移</t>
     </r>
@@ -4173,6 +4302,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">相关的内核线程（例如</t>
     </r>
@@ -4192,6 +4322,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等）失败，导致这些线程</t>
     </r>
@@ -4211,6 +4342,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -4238,6 +4370,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4258,6 +4391,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4278,6 +4412,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4298,6 +4433,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4318,6 +4454,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4338,6 +4475,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4358,6 +4496,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4378,6 +4517,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4398,6 +4538,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4418,6 +4559,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4438,6 +4580,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4458,6 +4601,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4478,6 +4622,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4498,6 +4643,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4518,6 +4664,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4538,6 +4685,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -4549,6 +4697,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机</t>
     </r>
@@ -4568,6 +4717,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端网卡驱动存在缺陷，在删除授权引用时会引起资源泄漏，导致对虚拟机反复下发热插拔网卡失败。</t>
     </r>
@@ -4579,6 +4729,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户对虚拟机进行反复热插拔网卡，约</t>
     </r>
@@ -4598,6 +4749,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">次后，虚拟机无法再次执行网卡热插拔或磁盘热插。</t>
     </r>
@@ -4620,6 +4772,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4638,6 +4791,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4656,6 +4810,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4674,6 +4829,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4692,6 +4848,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4710,6 +4867,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4728,6 +4886,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4746,6 +4905,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4764,6 +4924,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4782,6 +4943,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4800,6 +4962,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4818,6 +4981,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4836,6 +5000,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4854,6 +5019,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -4865,6 +5031,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核未提供用户态程序访问</t>
     </r>
@@ -4884,6 +5051,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的接口（如：</t>
     </r>
@@ -4903,6 +5071,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件或</t>
     </r>
@@ -4922,6 +5091,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件），导致</t>
     </r>
@@ -4941,6 +5111,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法运行。</t>
     </r>
@@ -4963,6 +5134,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -4981,6 +5153,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -4992,6 +5165,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核在处理热迁移恢复流程，增加了对</t>
     </r>
@@ -5011,6 +5185,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟设备的恢复操作，该操作耗时约为</t>
     </r>
@@ -5030,6 +5205,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒，设备恢复过程中虚拟机无法响应网络传输。</t>
     </r>
@@ -5041,6 +5217,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">管理员对虚拟机进行热迁移，</t>
     </r>
@@ -5060,6 +5237,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机网络将丢包，持续约</t>
     </r>
@@ -5079,6 +5257,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒。</t>
     </r>
@@ -5098,6 +5277,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -5116,6 +5296,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -5126,6 +5307,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这是虚拟机内核缺陷。虚拟机内核</t>
     </r>
@@ -5143,6 +5325,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">驱动在计算内存时将</t>
     </r>
@@ -5160,6 +5343,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置空间、</t>
     </r>
@@ -5177,6 +5361,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等计算在内，使得总</t>
     </r>
@@ -5194,6 +5379,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">超过配置值，因此虚拟机内核启动后便会做</t>
     </r>
@@ -5211,6 +5397,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">操作</t>
     </r>
@@ -5228,6 +5415,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">导致虚拟机配置</t>
     </r>
@@ -5245,6 +5433,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以上内存时，虚拟机实际内存大小比配置的内存大小少</t>
     </r>
@@ -5262,6 +5451,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">左右。</t>
     </r>
@@ -5272,6 +5462,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此缺陷会导致用户使用</t>
     </r>
@@ -5289,6 +5480,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等命令查看到的虚拟机内存比规划配置的内存少</t>
     </r>
@@ -5306,6 +5498,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">左右，且缺少的这部分内存也无法被使用（例如：配</t>
     </r>
@@ -5323,6 +5516,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会少</t>
     </r>
@@ -5340,6 +5534,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">；配</t>
     </r>
@@ -5357,6 +5552,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会少</t>
     </r>
@@ -5374,6 +5570,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）。</t>
     </r>
@@ -5395,6 +5592,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -5417,6 +5615,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -5428,6 +5627,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这是虚拟机自身缺陷。虚拟机启动后，将会呈现两套网卡（一个为</t>
     </r>
@@ -5447,6 +5647,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟的</t>
     </r>
@@ -5466,6 +5667,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网卡，另一个为</t>
     </r>
@@ -5485,6 +5687,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半虚拟化前端网卡），其</t>
     </r>
@@ -5504,6 +5707,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址相同。如果虚拟机所在的组网</t>
     </r>
@@ -5523,6 +5727,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分配使用</t>
     </r>
@@ -5542,6 +5747,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">方式，这两张网卡被分配的</t>
     </r>
@@ -5561,6 +5767,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可能相同。</t>
     </r>
@@ -5585,6 +5792,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">把以下内容追加到“</t>
     </r>
@@ -5604,6 +5812,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这个文件的末尾，使得</t>
     </r>
@@ -5623,6 +5832,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网卡的驱动在虚拟机启动过程中无法加载：
 </t>
@@ -5647,6 +5857,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">重启虚拟机生效。</t>
     </r>
@@ -5668,6 +5879,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -5688,6 +5900,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -5699,6 +5912,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷，导致虚拟机无法安装</t>
     </r>
@@ -5718,6 +5932,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -5732,6 +5947,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置网卡时，</t>
     </r>
@@ -5751,6 +5967,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置文件中缺少” </t>
     </r>
@@ -5770,6 +5987,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一项，系统在重启后，网口无法根据</t>
     </r>
@@ -5789,6 +6007,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置文件中的</t>
     </r>
@@ -5808,6 +6027,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址来进行名称关联，导致虚拟机网卡名变成</t>
     </r>
@@ -5827,6 +6047,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -5838,6 +6059,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机配置网卡后，重启虚拟机网卡名变成</t>
     </r>
@@ -5857,6 +6079,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -5872,6 +6095,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -5891,6 +6115,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置文件中，添加”</t>
     </r>
@@ -5910,6 +6135,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项即可解决。</t>
     </r>
@@ -5931,6 +6157,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -5965,6 +6192,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -5985,6 +6213,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -5996,6 +6225,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机默认使用</t>
     </r>
@@ -6015,6 +6245,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟的</t>
     </r>
@@ -6034,6 +6265,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">磁盘，未使用</t>
     </r>
@@ -6053,6 +6285,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半虚拟化磁盘。当执行虚拟机休眠时，需要暂停虚拟机，且暂停虚拟机后会，</t>
     </r>
@@ -6072,6 +6305,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">将会结束该虚拟机的</t>
     </r>
@@ -6091,6 +6325,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进程，由于虚拟机使用</t>
     </r>
@@ -6110,6 +6345,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟的</t>
     </r>
@@ -6129,6 +6365,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">磁盘无法处理它在暂停阶段产生的</t>
     </r>
@@ -6148,6 +6385,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，导致暂停过程超时失败。该缺陷同样存在于虚拟机的内存快照和热迁移功能中。</t>
     </r>
@@ -6172,6 +6410,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登录虚拟机，确认是否存在</t>
     </r>
@@ -6191,6 +6430,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端驱动，在虚拟机内部执行</t>
     </r>
@@ -6210,6 +6450,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">命令，若命令回显中有</t>
     </r>
@@ -6229,6 +6470,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，可以确认虚拟机自带了</t>
     </r>
@@ -6248,6 +6490,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端驱动，若没有这几个模块，则说明没有带</t>
     </r>
@@ -6267,6 +6510,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端驱动模块，建议不要再使用此虚拟机。
 </t>
@@ -6287,6 +6531,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">查看虚拟机是否存在两个设备对象。执行</t>
     </r>
@@ -6306,6 +6551,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，查看是否存在</t>
     </r>
@@ -6325,6 +6571,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -6344,6 +6591,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">两个磁盘设备；执行</t>
     </r>
@@ -6363,6 +6611,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，查看是否存在两个有相同</t>
     </r>
@@ -6382,6 +6631,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址的网卡设备。
 </t>
@@ -6402,6 +6652,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">若存在两个磁盘设备，修改</t>
     </r>
@@ -6421,6 +6672,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件，添加</t>
     </r>
@@ -6440,6 +6692,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，虚拟机不再使用</t>
     </r>
@@ -6459,6 +6712,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">磁盘设备。
 </t>
@@ -6479,6 +6733,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">若存在两个网卡设备，禁用</t>
     </r>
@@ -6498,6 +6753,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网卡驱动的加载，将以下内容追加到“</t>
     </r>
@@ -6517,6 +6773,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这个文件的末尾：
 </t>
@@ -6541,6 +6798,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">把</t>
     </r>
@@ -6560,6 +6818,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前端驱动加到</t>
     </r>
@@ -6579,6 +6838,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件里面，执行</t>
     </r>
@@ -6598,6 +6858,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。
 </t>
@@ -6618,6 +6879,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">重启虚拟机。</t>
     </r>
@@ -6629,6 +6891,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。</t>
     </r>
@@ -6648,6 +6911,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对虚拟机下发休眠，该虚拟机的</t>
     </r>
@@ -6667,6 +6931,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">将被注销，若休眠失败，其</t>
     </r>
@@ -6686,6 +6951,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">机制无法处理该失败场景，即失败回退处理过程中未重新注册休眠时已注销的</t>
     </r>
@@ -6705,6 +6971,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，导致休眠失败后，对该虚拟机下发的</t>
     </r>
@@ -6724,6 +6991,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">操作均无法响应，例如在用户界面下发重启虚拟机失败。该缺陷同样存在于热迁移和内存快照功能中。</t>
     </r>
@@ -6735,6 +7003,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机执行休眠失败、热迁移失败或执行内存快照后无法外部重启虚拟机</t>
     </r>
@@ -6754,6 +7023,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法再进行热迁移，休眠和内存快照。</t>
     </r>
@@ -6775,6 +7045,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -6802,6 +7073,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -6822,6 +7094,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -6842,6 +7115,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -6862,6 +7136,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -6882,6 +7157,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -6893,6 +7169,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机前端网卡驱动的缺陷。若通过主机卸载虚拟机内部处于</t>
     </r>
@@ -6912,6 +7189,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态的网卡或对网卡处于</t>
     </r>
@@ -6931,6 +7209,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态的虚拟机做休眠、唤醒、热迁移、快照时，虚拟机前端网卡驱动将调用</t>
     </r>
@@ -6950,6 +7229,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">同步函数，执行该函数会导致</t>
     </r>
@@ -6969,6 +7249,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内核线程变为</t>
     </r>
@@ -6988,6 +7269,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态。</t>
     </r>
@@ -7009,6 +7291,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">热拔虚拟机</t>
     </r>
@@ -7028,6 +7311,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态的网卡，将导致该虚拟机的所有虚拟化特性无法使用，如网卡热插拔、磁盘热插、关机、重启、热迁移等。
 </t>
@@ -7048,6 +7332,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网卡处于</t>
     </r>
@@ -7067,6 +7352,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态的虚拟机不能热迁移、休眠、唤醒、快照。</t>
     </r>
@@ -7081,6 +7367,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">参考补丁链接修复该问题。
 建议：不要热拔处于</t>
@@ -7101,6 +7388,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态的网卡。若用户触发该缺陷，需要强制重启虚拟机恢复。</t>
     </r>
@@ -7134,6 +7422,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">其他内核版本为</t>
     </r>
@@ -7153,6 +7442,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -7172,6 +7462,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的所有</t>
     </r>
@@ -7191,6 +7482,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发行系统</t>
     </r>
@@ -7202,6 +7494,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷，在前后端虚拟磁盘驱动状态切换时，虚拟磁盘驱动存在处理</t>
     </r>
@@ -7221,6 +7514,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的时序问题，当虚拟机热迁移或休眠、唤醒时，虚拟磁盘驱动多处理了一次</t>
     </r>
@@ -7240,6 +7534,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">状态，导致虚拟机卡死。</t>
     </r>
@@ -7262,6 +7557,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机自带的</t>
     </r>
@@ -7281,6 +7577,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组件存在缺陷。该虚拟机默认安装的</t>
     </r>
@@ -7300,6 +7597,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">库文件缺省访问</t>
     </r>
@@ -7319,6 +7617,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">接口文件，当用户态程序（如</t>
     </r>
@@ -7338,6 +7637,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）通过</t>
     </r>
@@ -7357,6 +7657,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注册</t>
     </r>
@@ -7376,6 +7677,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">时，将会触发虚拟机内核对</t>
     </r>
@@ -7395,6 +7697,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的读写与内核进程文件系统</t>
     </r>
@@ -7414,6 +7717,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">锁机制冲突的问题，导致程序卡死的现象。</t>
     </r>
@@ -7425,6 +7729,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户态程序访问</t>
     </r>
@@ -7444,6 +7749,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会卡死，例如运行</t>
     </r>
@@ -7463,6 +7769,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进程卡死。</t>
     </r>
@@ -7478,6 +7785,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使用低于</t>
     </r>
@@ -7497,6 +7805,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本的</t>
     </r>
@@ -7516,6 +7825,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">驱动的</t>
     </r>
@@ -7535,6 +7845,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发行系统 </t>
     </r>
@@ -7546,6 +7857,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机的</t>
     </r>
@@ -7565,6 +7877,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网卡驱动存在缺陷。在虚拟机内部执行修改网卡</t>
     </r>
@@ -7584,6 +7897,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的操作后，会低概率触发网卡驱动死锁，导致所有获取网络设备信息的功能失效，从而虚拟机网络断连。</t>
     </r>
@@ -7595,6 +7909,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">该问题出现后：
 </t>
@@ -7615,6 +7930,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机网卡停止收发包，网络不通。
 </t>
@@ -7635,6 +7951,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">与获得网络设备信息相关的命令卡死。如</t>
     </r>
@@ -7654,6 +7971,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -7673,6 +7991,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等。</t>
     </r>
@@ -7694,6 +8013,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本中已解决该问题</t>
     </r>
@@ -7705,6 +8025,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">将虚拟机内部的</t>
     </r>
@@ -7724,6 +8045,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">驱动升级到</t>
     </r>
@@ -7743,6 +8065,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或者更高版本。</t>
     </r>
@@ -7764,6 +8087,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -7784,6 +8108,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -7804,6 +8129,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -7824,6 +8150,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -7844,6 +8171,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -7864,6 +8192,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -7875,6 +8204,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核存在缺陷。存在问题的操作系统漏合一个调度</t>
     </r>
@@ -7894,6 +8224,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的补丁，使虚拟机操作系统</t>
     </r>
@@ -7913,6 +8244,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">负载均衡不够及时，最终导致虚拟机性能下降。</t>
     </r>
@@ -7924,6 +8256,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">相同环境和配置情况下，存在问题的虚拟机性能比</t>
     </r>
@@ -7943,6 +8276,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的虚拟机性能差。例如使用</t>
     </r>
@@ -7962,6 +8296,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">测试虚拟机性能发现多线程处理性能下降将近</t>
     </r>
@@ -7981,6 +8316,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。
 </t>
@@ -7996,6 +8332,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">参考补丁链接修复该问题。
 或参考如下步骤进行规避：
@@ -8017,6 +8354,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">联系虚拟机用户并获得用户授权后，登录虚拟机。
 </t>
@@ -8037,6 +8375,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">打开虚拟机命令行操作界面，打开内核启动项配置文件</t>
     </r>
@@ -8056,6 +8395,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，命令如下：
 </t>
@@ -8077,6 +8417,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -8096,6 +8437,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置项的行尾，添加配置项“</t>
     </r>
@@ -8115,6 +8457,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并保存修改。
 </t>
@@ -8135,6 +8478,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">重启虚拟机，使配置生效。
 </t>
@@ -8156,6 +8500,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位（内核版本</t>
     </r>
@@ -8173,6 +8518,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -8184,6 +8530,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。内核中</t>
     </r>
@@ -8203,6 +8550,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的函数</t>
     </r>
@@ -8222,6 +8570,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">与</t>
     </r>
@@ -8241,6 +8590,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">存在竞争情况，可能出现线程访问已经销毁的</t>
     </r>
@@ -8260,6 +8610,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的情况，内核出现</t>
     </r>
@@ -8279,6 +8630,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，导致虚拟机异常而不可用。</t>
     </r>
@@ -8303,6 +8655,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -8323,6 +8676,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -8342,6 +8696,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位（内核版本</t>
     </r>
@@ -8359,6 +8714,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -8370,6 +8726,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。在</t>
     </r>
@@ -8389,6 +8746,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平台的热迁移、休眠和唤醒过程中，前端网卡驱动</t>
     </r>
@@ -8408,6 +8766,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会与后端网卡驱动进行交互，进行</t>
     </r>
@@ -8427,6 +8786,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -8446,6 +8806,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">动作；内核的</t>
     </r>
@@ -8465,6 +8826,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">驱动中在前后端</t>
     </r>
@@ -8484,6 +8846,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -8503,6 +8866,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">过程中，存在授权表项泄露，导致最后无可用的授权表项，而触发内核</t>
     </r>
@@ -8522,6 +8886,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -8541,6 +8906,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">），从而导致虚拟机</t>
     </r>
@@ -8560,6 +8926,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -8571,6 +8938,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机执行热迁移、休眠或者唤醒操作会高概率导致虚拟机</t>
     </r>
@@ -8590,6 +8958,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -8615,6 +8984,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位（内核版本</t>
     </r>
@@ -8632,6 +9002,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -8643,6 +9014,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。虚拟机启动过程中需要加载内核模块</t>
     </r>
@@ -8662,6 +9034,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，而内核代码中有重复释放指针操作，导致加载</t>
     </r>
@@ -8681,6 +9054,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内核模块时，</t>
     </r>
@@ -8700,6 +9074,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">函数中的</t>
     </r>
@@ -8719,6 +9094,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针指向了空地址，从而导致虚拟机</t>
     </r>
@@ -8738,6 +9114,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -8762,6 +9139,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位（内核版本</t>
     </r>
@@ -8781,6 +9159,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -8791,6 +9170,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。对应版本内核的前端网卡驱动</t>
     </r>
@@ -8808,6 +9188,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">存在时序问题，在热插网卡的过程中，函数调用顺序错误导致网卡状态为未知（</t>
     </r>
@@ -8825,6 +9206,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">），系统误认为可以对网卡设备进行操作；同时热拔网卡时，也存在时序问题，导致网卡设备</t>
     </r>
@@ -8842,6 +9224,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">被注销后，系统还认为网卡链路正常，导致插拔网卡过程中访问已经被注销的</t>
     </r>
@@ -8859,6 +9242,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，从而导致虚拟机</t>
     </r>
@@ -8876,6 +9260,7 @@
         <sz val="10.5"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -8887,6 +9272,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机执行热插拔网卡操作会概率导致虚拟机</t>
     </r>
@@ -8906,6 +9292,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -8934,6 +9321,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -8954,6 +9342,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -8974,6 +9363,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -8994,6 +9384,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -9014,6 +9405,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -9034,6 +9426,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -9054,6 +9447,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位
 </t>
@@ -9074,6 +9468,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -9085,6 +9480,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核自身缺陷。因虚拟机内核的串口驱动只在</t>
     </r>
@@ -9104,6 +9500,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">函数的入口对</t>
     </r>
@@ -9123,6 +9520,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">结构中的缓存进行非空检查，若不为空，则直接使用，使用完后，再将缓存释放并置空。而其后续的流程中不再次检查对</t>
     </r>
@@ -9142,6 +9540,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">结构中的缓存进行非空判断。当虚拟机内部有多个程序并发访问该串口设备时，第二次重入</t>
     </r>
@@ -9161,6 +9560,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">函数因未对</t>
     </r>
@@ -9180,6 +9580,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">结构中的缓存进行非空检查，直接访问了空指针，导致虚拟机黑屏或卡死。</t>
     </r>
@@ -9207,6 +9608,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -9218,6 +9620,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。 在</t>
     </r>
@@ -9237,6 +9640,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟化平台上，虚拟机使用</t>
     </r>
@@ -9256,6 +9660,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">时，一个</t>
     </r>
@@ -9275,6 +9680,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可以尝试</t>
     </r>
@@ -9294,6 +9700,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">另一个正在自旋的</t>
     </r>
@@ -9313,6 +9720,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（因它尚未初始化它的</t>
     </r>
@@ -9332,6 +9740,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）， 而问题虚拟机在启动过程中， 可能出现</t>
     </r>
@@ -9351,6 +9760,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">去</t>
     </r>
@@ -9370,6 +9780,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个尚未完成分配中断的</t>
     </r>
@@ -9389,6 +9800,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的情况，从而导致虚拟机在启动</t>
     </r>
@@ -9408,6 +9820,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -9427,6 +9840,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">界面呈现为黑屏。</t>
     </r>
@@ -9447,6 +9861,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">若要通过主机热拔虚拟机的磁盘，建议先确认该磁盘在虚拟机内部未被使用。以逻辑卷为例：若</t>
     </r>
@@ -9466,6 +9881,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -9485,6 +9901,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">都属于同一个卷组</t>
     </r>
@@ -9504,6 +9921,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，若要热拔</t>
     </r>
@@ -9523,6 +9941,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，可通过如下步骤处理：
 </t>
@@ -9543,6 +9962,7 @@
         <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">删除逻辑卷，参考命令：</t>
     </r>
@@ -9573,6 +9993,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。
 </t>
@@ -9593,6 +10014,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">通过主机下发热拔</t>
     </r>
@@ -9612,6 +10034,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">操作。</t>
     </r>
@@ -9627,6 +10050,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机内核缺陷。 内核修改</t>
     </r>
@@ -9646,6 +10070,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模块引入问题，导致运行在</t>
     </r>
@@ -9665,6 +10090,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平台的虚拟机的用户态程序无法访问</t>
     </r>
@@ -9684,6 +10110,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，这也导致</t>
     </r>
@@ -9703,6 +10130,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法正常运行。引入问题的内核修改补丁如下：</t>
     </r>
@@ -9724,6 +10152,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">虚拟机用户态程序无法访问</t>
     </r>
@@ -9743,6 +10172,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -9762,6 +10192,7 @@
         <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">也无法正常运行。</t>
     </r>
@@ -9779,12 +10210,13 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY/M/D;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9802,31 +10234,18 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -9839,6 +10258,7 @@
       <color rgb="FF0000FF"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -9846,17 +10266,20 @@
       <color rgb="FF3366FF"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -9864,6 +10287,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -9886,6 +10310,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FF010000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -9896,6 +10326,7 @@
       <color rgb="FF010000"/>
       <name val="思源黑体 CN Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -9963,7 +10394,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9987,88 +10418,77 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10076,31 +10496,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10108,32 +10532,18 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="常规 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="超链接 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -10256,165 +10666,162 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15" t="n">
+      <c r="B18" s="14" t="n">
         <v>42681</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="14" t="n">
         <v>42643</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="14" t="n">
         <v>42598</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="14" t="n">
         <v>42479</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10456,7 +10863,7 @@
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="66.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="66.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="115.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.03"/>
@@ -10465,782 +10872,782 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
+      <c r="A4" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+      <c r="A5" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+      <c r="A6" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="324.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+    <row r="8" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="132" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="122.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
+      <c r="A12" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="216.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
+      <c r="A16" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="189.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
+      <c r="A18" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+      <c r="A19" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+      <c r="A20" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="n">
+      <c r="A21" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="n">
+      <c r="A22" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="n">
+      <c r="A23" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="243.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="n">
+      <c r="A24" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="n">
+      <c r="A25" s="26" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="n">
+      <c r="A26" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="104.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="n">
+      <c r="A27" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="n">
+      <c r="A28" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="n">
+      <c r="A29" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="n">
+      <c r="A30" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="n">
+      <c r="A31" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="n">
+      <c r="A32" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="n">
+      <c r="A33" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="n">
+      <c r="A34" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="n">
+      <c r="A35" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="108.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="n">
+      <c r="A36" s="26" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="n">
+      <c r="A37" s="26" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="n">
+      <c r="A38" s="26" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="n">
+      <c r="A39" s="26" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="27" t="s">
         <v>58</v>
       </c>
     </row>

--- a/docs/Linux发行版缺陷列表.xlsx
+++ b/docs/Linux发行版缺陷列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="256">
   <si>
     <t xml:space="preserve">概述</t>
   </si>
@@ -148,6 +148,12 @@
     <t xml:space="preserve">更新说明</t>
   </si>
   <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第五次正式发布。</t>
+  </si>
+  <si>
     <t xml:space="preserve">04</t>
   </si>
   <si>
@@ -778,6 +784,48 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Oracle Linux 5.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle Linux 5.8 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">CentOS/Oracle Linux/Red Hat Enterprise Linux 6</t>
     </r>
     <r>
@@ -1273,6 +1321,28 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS/Oracle Linux/Red Hat Enterprise Linux 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">系列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
         <charset val="1"/>
@@ -1626,6 +1696,27 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">CentOS 7.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Debian 6/7/8</t>
     </r>
     <r>
@@ -1647,28 +1738,49 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Fedora 23 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Oracle Linux 7.2 64</t>
+      <t xml:space="preserve">Fedora 22/23/24 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle Linux Server release 6.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle Linux Server release 7.2 64</t>
     </r>
     <r>
       <rPr>
@@ -1794,28 +1906,110 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Red Hat Enterprise Linux 7.1 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Red Hat Enterprise Linux 7.2 64</t>
+      <t xml:space="preserve">Red Hat Enterprise Linux 7.0 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">补丁内核：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.10.0-514.6.1.el7.x86_64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 7.1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 7.2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 7.3 32/64</t>
     </r>
     <r>
       <rPr>
@@ -2190,6 +2384,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7.2</t>
     </r>
@@ -4551,6 +4746,48 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Oracle Enterprise Linux 5.8 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle Enterprise Linux 6.3 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Oracle Enterprise Linux 6.7 32</t>
     </r>
     <r>
@@ -4898,7 +5135,36 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CentOS 6.8 64</t>
+      <t xml:space="preserve">CentOS 6.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle Enterprise Linux 5.8 64</t>
     </r>
     <r>
       <rPr>
@@ -5584,35 +5850,180 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">CentOS 5.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 5.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">CentOS 5.11 32/64</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP1
-Novell SuSE Linux Enterprise Server 11 SP2
-Red Hat Enterprise Linux 5.11 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.11 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
         <charset val="1"/>
@@ -5871,23 +6282,65 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">CentOS 5.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">CentOS 5.11 32/64</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -5897,7 +6350,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
         <charset val="1"/>
@@ -5939,6 +6392,49 @@
   </si>
   <si>
     <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 5.11 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.11 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
   </si>
   <si>
     <r>
@@ -6174,49 +6670,6 @@
   </si>
   <si>
     <t xml:space="preserve">参考补丁链接修复该问题可降低热迁移卡死的概率。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF010000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CentOS 5.11  32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Red Hat Enterprise Linux 5.11 32/64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="思源黑体 CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">位</t>
-    </r>
   </si>
   <si>
     <r>
@@ -7149,7 +7602,28 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ubuntu server 14.04.3 32</t>
+      <t xml:space="preserve">Ubuntu server 14.04.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu server 14.10 32/64</t>
     </r>
     <r>
       <rPr>
@@ -7548,7 +8022,8 @@
   <si>
     <t xml:space="preserve">CoreOS 1010.5.0
 CoreOS 1068.2.0
-CoreOS 1122.2.0</t>
+CoreOS 1122.2.0
+CoreOS 1122.3.0</t>
   </si>
   <si>
     <r>
@@ -9600,12 +10075,96 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ubuntu server 16.04 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">Ubuntu 16.04 server 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 16.04.1 server 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 14.04.4 server/desktop 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 14.04.5 server 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openSUSE Leap 42.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
         <rFont val="思源黑体 CN Regular"/>
         <family val="2"/>
         <charset val="1"/>
@@ -10041,7 +10600,8 @@
   </si>
   <si>
     <t xml:space="preserve">CoreOS 1122.2.0
-CoreOS 1122.3.0</t>
+CoreOS 1122.3.0
+CoreOS 1185.5.0</t>
   </si>
   <si>
     <r>
@@ -10199,6 +10759,1610 @@
   </si>
   <si>
     <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/drivers/xen/xenbus/xenbus_dev_frontend.c?h=linux-4.7.y&amp;id=b035f15daf750e1594964d68889e0de5c3014922</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 16.04 32bit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（内核版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.4.0-21-generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷，linux kernel社区在4.4-rc1版本中引入了xen_pfn_to_page，对xen平台的虚拟机pfn和page相互转化时，若内存达到4GB后会发生转换时pfn溢出，造成虚拟机在启动时发生crash的问题。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机配置4GB内存（有时3GB多就会有问题，取决于内存管理是否使用到较大的pfn值）及以上时，启动会发生crash情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=60901df3aed230d4565dca003f11b6a95fbf30d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建议一：
+Linux Kernel社区已在4.6-rc7版本合入了该patch，可参考补丁链接修复该问题。
+建议二：
+在32位系统上避免配置3GB以上内存，以免发生无法启动的问题。
+建议三：
+可升级到Ubuntu 16.04.1或更新的发行版本以解决该问题。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。在查找最忙的任务组的流程中，会去计算每个任务的平均负载。计算的方法是使用总的负载除以当前正在运行的队列数目（rq-&gt;nr_running）。但是运行队列数目这个变量，是在每个tick中刷新的，也就是说在时钟中断中，可能会将运行队列数目给清零。在这种情况下，在前面的if判断中，运行队列数目不为零，后面走到除法的时候，运行队列数目在时钟中断中清零了，就出现了除0错误，导致虚拟机卡死</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机在运行过程中，因其任务调度模块存在缺陷，概率性发生卡死</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=4cd4262034849da01eb88659af677b69f8169f06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fedora 24 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">在中断迁移的过程中，会去获取中断的锁资源，但是disable的中断锁资源已释放，去获取的时候，就会造成内核函数irq_move_masked_irq死锁，CPU占用率100%，并且crash。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机热迁移后将会卡死</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=f0f393877c71ad227d36705d61d1e4062bc29cf5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu Server 16.04 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu Server 16.04 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu Server 16.04.1 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu Server 16.04.1 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核（低于8个vcpu+8G内存的配置）自带的xen balloon驱动缺陷。因当前内核已经实现了xen balloon驱动对内存热插功能支持，而balloon驱动通过get_num_physpages接口获取到虚拟机的内存总量（current_pages）小于CNA节点为其分配的内存值（target_pages），此时虽然hypervisor未对该虚拟机下发内存热插，但balloon驱动会执行内存热插流程，将（target_pages- current_pages）差值增加到虚拟机内存中，而实际上并不存在热插的内存，增加是其IO系统内存（内核为IO资源预留的内存），而光驱设备加载时申请到的缓存区正好有包含这些区域，导致读取到虚拟机光驱内的部分文件是异常的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机配置低于8个vcpu+8G内存，虚拟机内部读取光驱内的部分文件异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/drivers/xen/balloon.c?id=782b86641e5d471e9eb1cf0072c012d2f758e568
+https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/include/linux/ioport.h?id=9babd5c8caa6e62c116efc3a64a09f65af4112b0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.3 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.3 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核与虚拟化平台的兼容性问题。在对虚拟机执行反复磁盘热插拔和休眠操作时，唤醒时虚拟机内核读取TSC时钟源不稳定低概率触发xenwatch_unplug线程运行超时，阻塞了xenwatch线程的正常工作，导致虚拟机休眠失败。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机低概率反复热插磁盘、网卡后，执行休眠或热迁移失败。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过更改虚拟机时钟源解决问题。
+修改虚拟机内部的/boot/grub/menu.lst文件，在虚拟机的默认启动项中添加“notsc”或“tsc=reliable”参数，以notsc为例，配置如“kenrel /vmlinuz-2.6.32-279.el6.x86_64 ro root=/dev/mapper/vg-localhost-lv_root notsc”，其中默认启动项为/boot/grub/menu.lst文件中“default”指定的启动项。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.1 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.2 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.1 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.2 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机自带的前端磁盘驱动缺陷。虚拟机在关闭磁盘的时候，blk_cleanup_queue和del_gendisk在释放gendisk时存在时序上的问题，即若先执行blk_cleanup_queue函数并将磁盘的request_queue置空，低概率del_gendisk发送uevent访问非法内存，导致虚拟机内核panic。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机热拔磁盘时低概率发生虚拟机panic。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/drivers/block/xen-blkfront.c?id=89de1669ace055b56f1de1c9f5aca26dd7f17f25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.7 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux 8.2.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux 8.6.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux 8.7.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SUSE Linux Enterprise Server 12 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SUSE Linux Enterprise Server 12 SP2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机串口登录过程中，如果不断向串口传入数据，在虚拟机返回告警信息的时候，会概率性引发内核崩溃，导致虚拟机卡死。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机启动过程中概率性卡死</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发生卡死后，重启虚拟机；或者避免在虚拟机启动过程中，通过串口不断向虚拟机输入数据。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 14.04 server 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 14.04 server 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 16.04 server 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu 16.04 server 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核自身缺陷导致。在中断迁移的过程中，会去获取中断的锁资源，但是disable的中断锁资源已释放，去获取的时候，就会造成内核函数irq_move_masked_irq死锁，CPU占用率100%，并且crash。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.3 Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">发行版缺陷列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.3 Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">发行版缺陷列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。
+并发对vCPU上线，当一个vCPU保存启用了中断请求的读锁，另一个vCPU正在做set_mtrr并通过IPI尝试整合MTRR，此时若还有vCPU需要使用write_lock_irq来禁用irqs，将导致该vCPU一直处于等待锁状态卡死，从而导致vCPU上线失败，而内核为其分配的内核线程也无法运行，呈现D状态。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">并发对热插的vCPU进行上线后，虚拟机系统部分进程概率发生D状态的问题。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/arch/x86/kernel/smpboot.c?id=68f202e4e87cfab4439568bf397fcc5c7cf8d729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参考补丁链接修复该问题或通过串行的方式上线vCPU规避该问题。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核libata驱动存在缺陷，由于hsm_task_stat变量存在并发访问场景，由于缺少锁的保护，在IO压力较大的情况下，低概率会出现虚拟机panic问题，具体可以从虚拟机串口日志或者虚拟机生成core文件中的日志里可见“kernel BUG at /usr/src/packages/BUILD/kernel-default-3.0.76/linux-3.0/drivers/ata/libata-sff.c:1298!”字段描述。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机使用了libata驱动的情况下，如果对磁盘进行加压，或者后端磁盘IO压力较大，会低概率出现panic。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/drivers/ata/libata-sff.c?id=ce7514526742c0898b837d4395f515b79dfb5a12
+https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/drivers/ata/libata-sff.c?id=a588afc920bc50e894f6ae2874c4281c795e0979
+https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/drivers/ata/libata-sff.c?id=8eee1d3ed5b6fc8e14389567c9a6f53f82bb7224</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Canaima GNU/Linux 3.1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux  6.0.4 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux  6.0.5 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux  6.0.7 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Debian GNU/Linux  6.0.10 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核存在缺陷。系统在VCPU个数大于6时，会出现启动卡住问题。
+系统针对每一个VCPU，都会注册一个时钟中断，时钟中断号从16开始，xenbus中断紧随其后，所有这些都发生在PCI中断注册之前，当VCPU个数 &gt; 6时(加一个xenbus中断)，将占用23号中断（虚拟机PCI设备UHCI的固定中断号），导致UHCI中断注册失败，CPU得不到调度，虚拟机无法正常启动。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机在VCPU个数大于6个时，虚拟机无法启动。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配置VCPU个数小于等于6。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SUSE Linux Enterprise Server 11 SP1 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openSUSE Leap 42.1 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。
+在xen平台上为虚拟机配置网卡，默认情况下，虚拟机内部会出现模拟设备（8139网卡）和Xen半虚拟化前端网卡共存的场景。由于虚拟机内核初始化过程中会通知hypervisor去销毁模拟设备，所有首次热迁移会成功，但因虚拟机内核缺陷，在首次热迁移的恢复阶段没有销毁模拟网卡，若此时对虚拟机执行热拔网卡，另一个内核缺陷导致虚拟机无法清理该网卡申请的内存资源，再次对该虚拟机下发热迁移，移到目的端后，虚拟机会尝试恢复模拟网卡，在恢复过程中导致内存的异常访问，从而虚拟机crash。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机热迁移后执行热拔网卡操作，之后再次迁移虚拟机，虚拟机crash。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暂无修复办法。
+出现该问题后，外部强制重启虚拟机使其恢复。
+建议：
+避免执行热迁移后热拔网卡的操作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ubuntu  16.04.1 server 32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核的xen-balloon存在缺陷，在系统启动后，其balloon会触发一次内存热插，将系统IO空间的内存二次映射，累加到系统的线性地址中，导致系统内存故障，即同一物理页存在两个线性地址的映射。当内核堆栈恰好位于这样的物理页中的时候，就可能造成内核堆栈被其他线程修改，进而导致内核堆栈异常，触发虚拟机crash。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机启动或运行过程中概率性crash。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">该问题的解决办法为：参考补丁链接，修复该问题。
+当发生该问题后的紧急恢复方法为：用户使用强制重启虚拟机来恢复。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.4 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核的IPv6模块存在缺陷。内核的ip6_dst_lookup_tail函数存在空指针引用漏洞。本地网络上的攻击者可以通过向目标系统发送IPv6通讯来触发这个漏洞，如果接收到IPv6报文时目标系统上dst-&gt;neighbour为空，就会导致系统crash。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机运行过程中概率性crash</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.3 Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">发行版缺陷列表</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">方法一：
+禁用IPv6
+1.    修改/etc/modprobe.conf配置文件，增加两行
+alias net-pf-10 off 
+alias ipv6 off
+2.    修改/etc/sysconfig/network文件，确认配置如下：NETWORKING_IPV6=no
+3.    重启虚拟机
+方法二：
+通过RedHat官方补丁修复。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 5.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5.5 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。
+在装有AMD Opteron 6000系列CPU的主机上启动虚拟机，虚拟机会启动失败，产生kernel panic。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机启动失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参考补丁链接解决问题
+CentOS 5.6及以上版本已解决该Bug，建议使用CentOS 5.6及以上版本操作系统的虚拟机</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">系列 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">系列 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">系列 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SuSE Linux Enterprise Server 11 SP1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oracle Linux Server release 6.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Red Hat Enterprise Linux 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.0 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.1 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.2 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.3 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CentOS 6.4 32/64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。
+当虚拟机开启guestNuma，同时配置特定的CPU拓扑时，由于虚拟机内核计算CPU对应node的映射时计算错误，引发一个除0 BUG，导致虚拟机panic。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=7d6b46707f2491a94f4bd3b4329d2d7f809e9368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。
+在设备注册到sysfs时，如果该设备的group attributes没有设置，该项就可能为空。在sysfs创建group的流程中，没有对group attributes这项做检查，直接使用了该变量，就会导致空指针访问，虚拟机卡死。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=5631f2c18f4b2845b3e97df1c659c5094a17605f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openSUSE Leap 42.2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Novell SUSE Linux Enterprise Server 12 SP2 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF010000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机内核缺陷。
+在虚拟机热迁移/休眠唤醒的恢复阶段，因为同步恢复的子设备对其异步恢复的父设备依赖，当父设备未恢复时，此时子设备持有锁的情况下循环等待父设备恢复，由于父设备无法获得锁导致其无法恢复，造成死锁现象。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟机热迁移/休眠唤醒时小概率出现虚拟机卡死问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恢复方式：
+出现问题时可强制重启虚拟机恢复。
+解决方法：
+可修改内核，在dpm_resume_noirq函数中增加pm_async_enable = 0;来关闭异步恢复</t>
   </si>
 </sst>
 </file>
@@ -10210,7 +12374,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY/M/D;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10307,12 +12471,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -10524,15 +12682,15 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10644,10 +12802,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10780,49 +12938,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="14" t="n">
-        <v>42681</v>
+        <v>42903</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="14" t="n">
-        <v>42643</v>
-      </c>
-      <c r="C19" s="17" t="s">
+        <v>42681</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="E19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="14" t="n">
-        <v>42598</v>
+        <v>42643</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>42479</v>
+        <v>42598</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>42479</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -10854,10 +13024,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10896,39 +13066,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="50.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10936,19 +13106,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10956,19 +13126,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10976,39 +13146,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="324.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="447.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11016,19 +13186,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="132" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11036,19 +13206,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11056,19 +13226,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="122.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11076,19 +13246,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11096,19 +13266,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11116,19 +13286,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11136,19 +13306,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11156,59 +13326,59 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="216.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="298.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="189.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,19 +13386,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11236,59 +13406,59 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11296,19 +13466,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11316,59 +13486,59 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="243.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="277.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11376,39 +13546,39 @@
         <v>25</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="104.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="100.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11416,39 +13586,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11456,19 +13626,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11476,19 +13646,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11496,19 +13666,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11516,19 +13686,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11536,19 +13706,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11556,19 +13726,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="108.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11576,39 +13746,39 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="83.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11616,39 +13786,399 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="50.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="116.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="50.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="34.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="26" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="83.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="26" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="83.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="26" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="100.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="26" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="26" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="26" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="83.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="83.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="50.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="26" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="166.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="26" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="50.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="248.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="50.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="26" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="83.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -11667,6 +14197,13 @@
     <hyperlink ref="E37" r:id="rId12" display="https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=707e59ba494372a90d245f18b0c78982caa88e48"/>
     <hyperlink ref="E38" r:id="rId13" display="无"/>
     <hyperlink ref="E39" r:id="rId14" display="https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/drivers/xen/xenbus/xenbus_dev_frontend.c?h=linux-4.7.y&amp;id=b035f15daf750e1594964d68889e0de5c3014922"/>
+    <hyperlink ref="E40" r:id="rId15" display="https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=60901df3aed230d4565dca003f11b6a95fbf30d9"/>
+    <hyperlink ref="E41" r:id="rId16" display="https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=4cd4262034849da01eb88659af677b69f8169f06"/>
+    <hyperlink ref="E42" r:id="rId17" display="https://git.kernel.org/cgit/linux/kernel/git/torvalds/linux.git/commit/?id=f0f393877c71ad227d36705d61d1e4062bc29cf5"/>
+    <hyperlink ref="E45" r:id="rId18" display="https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/drivers/block/xen-blkfront.c?id=89de1669ace055b56f1de1c9f5aca26dd7f17f25"/>
+    <hyperlink ref="E48" r:id="rId19" display="https://git.kernel.org/cgit/linux/kernel/git/stable/linux-stable.git/commit/arch/x86/kernel/smpboot.c?id=68f202e4e87cfab4439568bf397fcc5c7cf8d729"/>
+    <hyperlink ref="E55" r:id="rId20" display="https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=7d6b46707f2491a94f4bd3b4329d2d7f809e9368"/>
+    <hyperlink ref="E56" r:id="rId21" display="https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=5631f2c18f4b2845b3e97df1c659c5094a17605f"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
